--- a/QuantLibXL/Data2/XLS/USD/USD_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD/USD_YCSTDBootstrapping.xlsx
@@ -872,7 +872,7 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1245,15 +1245,18 @@
     <xf numFmtId="172" fontId="3" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="172" fontId="3" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1615,7 +1618,7 @@
       </c>
       <c r="I3" s="13">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42180</v>
+        <v>42255</v>
       </c>
       <c r="J3" s="83"/>
     </row>
@@ -1634,7 +1637,7 @@
       </c>
       <c r="I4" s="15">
         <f>_xll.qlCalendarAdvance(Calendar,Evaluationdate,"2D","F",,Trigger)</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="J4" s="83"/>
     </row>
@@ -1644,7 +1647,9 @@
       <c r="C5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="21">
+        <v>42255.629363425927</v>
+      </c>
       <c r="E5" s="83"/>
       <c r="G5" s="85"/>
       <c r="H5" s="14" t="s">
@@ -1680,7 +1685,7 @@
       <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="164"/>
+      <c r="D7" s="162"/>
       <c r="E7" s="83"/>
       <c r="G7" s="85"/>
       <c r="H7" s="14" t="s">
@@ -1775,7 +1780,7 @@
       </c>
       <c r="D14" s="41" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,D17,Calendar,_xll.ohPack(USDSTD!W3:W71),,,,D18,D19,D20,Permanent,,ObjectOverwrite)</f>
-        <v>_USDSTD#0036</v>
+        <v>_USDSTD#0003</v>
       </c>
       <c r="E14" s="42"/>
     </row>
@@ -1848,7 +1853,7 @@
       <c r="B22" s="23"/>
       <c r="C22" s="32">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_STD)</f>
-        <v>42180</v>
+        <v>42255</v>
       </c>
       <c r="D22" s="33">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C22,,Trigger)</f>
@@ -1860,11 +1865,11 @@
       <c r="B23" s="23"/>
       <c r="C23" s="34">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_STD,Trigger)</f>
-        <v>60454</v>
+        <v>53223</v>
       </c>
       <c r="D23" s="35">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C23,,Trigger)</f>
-        <v>0.22391910599194911</v>
+        <v>0.43380514110752189</v>
       </c>
       <c r="E23" s="42"/>
     </row>
@@ -2081,15 +2086,15 @@
       <c r="AB2" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="AC2" s="162">
+      <c r="AC2" s="160">
         <f t="array" ref="AC2:AC71">_xll.qlPiecewiseYieldCurveData(YieldCurve_STD,Trigger)</f>
-        <v>2.7374897344519516E-3</v>
-      </c>
-      <c r="AE2" s="160" t="s">
+        <v>2.8388778488116924E-3</v>
+      </c>
+      <c r="AE2" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="AF2" s="161"/>
-      <c r="AH2" s="163"/>
+      <c r="AF2" s="164"/>
+      <c r="AH2" s="161"/>
     </row>
     <row r="3" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="111" t="s">
@@ -2106,7 +2111,7 @@
       <c r="F3" s="125"/>
       <c r="G3" s="114" t="str">
         <f>_xll.qlLibor(,Currency,C3,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003db#0017</v>
+        <v>obj_0031e#0001</v>
       </c>
       <c r="H3" s="122" t="str">
         <f t="shared" ref="H3:H11" si="0">Currency&amp;$B3&amp;"D"&amp;$H$1&amp;QuoteSuffix</f>
@@ -2115,7 +2120,7 @@
       <c r="I3" s="125"/>
       <c r="J3" s="115" t="str">
         <f>_xll.qlDepositRateHelper(,H3,G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00472#0014</v>
+        <v>obj_00323#0001</v>
       </c>
       <c r="K3" s="49"/>
       <c r="L3" s="66" t="str">
@@ -2124,7 +2129,7 @@
       </c>
       <c r="M3" s="133" t="str">
         <f>IF(ISBLANK(J3),"--",J3)</f>
-        <v>obj_00472#0014</v>
+        <v>obj_00323#0001</v>
       </c>
       <c r="N3" s="147" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M3,Trigger),"--")</f>
@@ -2132,7 +2137,7 @@
       </c>
       <c r="O3" s="135">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M3,Trigger),"--")</f>
-        <v>2.7000000000000001E-3</v>
+        <v>2.7999999999999995E-3</v>
       </c>
       <c r="P3" s="134" t="b">
         <v>1</v>
@@ -2145,19 +2150,19 @@
       </c>
       <c r="S3" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M3,Trigger),"--")</f>
-        <v>42180</v>
+        <v>42255</v>
       </c>
       <c r="T3" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M3,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42256</v>
       </c>
       <c r="V3" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X3,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" ref="V3:V34" si="1">IFERROR(INDEX($L$3:$L$71,MATCH(X3,$N$3:$N$71,0),1),"")</f>
         <v>Dp</v>
       </c>
       <c r="W3" s="3" t="str">
         <f t="array" ref="W3:W71">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AF$3,$AF$4,$AF$5,$AF$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_00472</v>
+        <v>obj_00323</v>
       </c>
       <c r="X3" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W3,Trigger),"")</f>
@@ -2165,7 +2170,7 @@
       </c>
       <c r="Y3" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W3,Trigger),"")</f>
-        <v>2.7000000000000001E-3</v>
+        <v>2.7999999999999995E-3</v>
       </c>
       <c r="Z3" s="105" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W3)),_xll.qlSwapRateHelperSpread($W3))</f>
@@ -2173,14 +2178,14 @@
       </c>
       <c r="AA3" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W3,Trigger),"")</f>
-        <v>42180</v>
+        <v>42255</v>
       </c>
       <c r="AB3" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W3,Trigger),"")</f>
-        <v>42181</v>
+        <v>42256</v>
       </c>
       <c r="AC3" s="68">
-        <v>2.7374897344519516E-3</v>
+        <v>2.8388778488116924E-3</v>
       </c>
       <c r="AE3" s="108" t="s">
         <v>85</v>
@@ -2188,7 +2193,7 @@
       <c r="AF3" s="109">
         <v>6</v>
       </c>
-      <c r="AH3" s="163"/>
+      <c r="AH3" s="161"/>
     </row>
     <row r="4" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="53" t="s">
@@ -2205,7 +2210,7 @@
       <c r="F4" s="132"/>
       <c r="G4" s="55" t="str">
         <f>_xll.qlLibor(,Currency,C4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003d9#0019</v>
+        <v>obj_00313#0001</v>
       </c>
       <c r="H4" s="158" t="str">
         <f t="shared" si="0"/>
@@ -2214,16 +2219,16 @@
       <c r="I4" s="132"/>
       <c r="J4" s="57" t="str">
         <f>_xll.qlFraRateHelper(,H4,"1D",G4,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0046b#0014</v>
+        <v>obj_00318#0001</v>
       </c>
       <c r="K4" s="48"/>
       <c r="L4" s="9" t="str">
-        <f t="shared" ref="L4:L11" si="1">A4</f>
+        <f t="shared" ref="L4:L11" si="2">A4</f>
         <v>Dp</v>
       </c>
       <c r="M4" s="95" t="str">
-        <f t="shared" ref="M4:M11" si="2">IF(ISBLANK(J4),"--",J4)</f>
-        <v>obj_0046b#0014</v>
+        <f t="shared" ref="M4:M11" si="3">IF(ISBLANK(J4),"--",J4)</f>
+        <v>obj_00318#0001</v>
       </c>
       <c r="N4" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M4,Trigger),"--")</f>
@@ -2231,7 +2236,7 @@
       </c>
       <c r="O4" s="99">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M4,Trigger),"--")</f>
-        <v>2.7000000000000001E-3</v>
+        <v>2.7999999999999995E-3</v>
       </c>
       <c r="P4" s="98" t="b">
         <v>1</v>
@@ -2244,18 +2249,18 @@
       </c>
       <c r="S4" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M4,Trigger),"--")</f>
-        <v>42181</v>
+        <v>42256</v>
       </c>
       <c r="T4" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M4,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="V4" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X4,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="W4" s="3" t="str">
-        <v>obj_0046b</v>
+        <v>obj_00318</v>
       </c>
       <c r="X4" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W4,Trigger),"")</f>
@@ -2263,7 +2268,7 @@
       </c>
       <c r="Y4" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W4,Trigger),"")</f>
-        <v>2.7000000000000001E-3</v>
+        <v>2.7999999999999995E-3</v>
       </c>
       <c r="Z4" s="105" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W4)),_xll.qlSwapRateHelperSpread($W4))</f>
@@ -2271,14 +2276,14 @@
       </c>
       <c r="AA4" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W4,Trigger),"")</f>
-        <v>42181</v>
+        <v>42256</v>
       </c>
       <c r="AB4" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W4,Trigger),"")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="AC4" s="68">
-        <v>2.7374743362982819E-3</v>
+        <v>2.8388778488016657E-3</v>
       </c>
       <c r="AE4" s="108" t="s">
         <v>86</v>
@@ -2286,7 +2291,7 @@
       <c r="AF4" s="109">
         <v>0</v>
       </c>
-      <c r="AH4" s="163"/>
+      <c r="AH4" s="161"/>
     </row>
     <row r="5" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -2303,7 +2308,7 @@
       <c r="F5" s="127"/>
       <c r="G5" s="6" t="str">
         <f>_xll.qlLibor(,Currency,C5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003cf#0020</v>
+        <v>obj_0031c#0001</v>
       </c>
       <c r="H5" s="124" t="str">
         <f t="shared" si="0"/>
@@ -2312,16 +2317,16 @@
       <c r="I5" s="127"/>
       <c r="J5" s="2" t="str">
         <f>_xll.qlFraRateHelper(,H5,"2D",G5,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0046c#0015</v>
+        <v>obj_0031f#0001</v>
       </c>
       <c r="K5" s="48"/>
       <c r="L5" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="M5" s="95" t="str">
-        <f t="shared" si="2"/>
-        <v>obj_0046c#0015</v>
+        <f t="shared" si="3"/>
+        <v>obj_0031f#0001</v>
       </c>
       <c r="N5" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M5,Trigger),"--")</f>
@@ -2329,7 +2334,7 @@
       </c>
       <c r="O5" s="99">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M5,Trigger),"--")</f>
-        <v>2.7000000000000001E-3</v>
+        <v>2.7999999999999995E-3</v>
       </c>
       <c r="P5" s="98" t="b">
         <v>1</v>
@@ -2342,18 +2347,18 @@
       </c>
       <c r="S5" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M5,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T5" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M5,Trigger),"--")</f>
-        <v>42185</v>
+        <v>42258</v>
       </c>
       <c r="V5" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X5,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="W5" s="3" t="str">
-        <v>obj_0046c</v>
+        <v>obj_0031f</v>
       </c>
       <c r="X5" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W5,Trigger),"")</f>
@@ -2361,7 +2366,7 @@
       </c>
       <c r="Y5" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W5,Trigger),"")</f>
-        <v>2.7000000000000001E-3</v>
+        <v>2.7999999999999995E-3</v>
       </c>
       <c r="Z5" s="105" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W5)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W5)),_xll.qlSwapRateHelperSpread($W5))</f>
@@ -2369,14 +2374,14 @@
       </c>
       <c r="AA5" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W5,Trigger),"")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="AB5" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W5,Trigger),"")</f>
-        <v>42185</v>
+        <v>42258</v>
       </c>
       <c r="AC5" s="68">
-        <v>2.7374774159143523E-3</v>
+        <v>2.8388778487858581E-3</v>
       </c>
       <c r="AD5" s="76"/>
       <c r="AE5" s="108" t="s">
@@ -2385,7 +2390,7 @@
       <c r="AF5" s="109">
         <v>2</v>
       </c>
-      <c r="AH5" s="163"/>
+      <c r="AH5" s="161"/>
     </row>
     <row r="6" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58" t="s">
@@ -2395,7 +2400,7 @@
         <v>90</v>
       </c>
       <c r="C6" s="61" t="str">
-        <f t="shared" ref="C6:C11" si="3">B6</f>
+        <f t="shared" ref="C6:C11" si="4">B6</f>
         <v>SW</v>
       </c>
       <c r="D6" s="126"/>
@@ -2403,7 +2408,7 @@
       <c r="F6" s="126"/>
       <c r="G6" s="60" t="str">
         <f>_xll.qlLibor(,Currency,C6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003c9#0019</v>
+        <v>obj_0031b#0001</v>
       </c>
       <c r="H6" s="123" t="str">
         <f t="shared" si="0"/>
@@ -2412,16 +2417,16 @@
       <c r="I6" s="126"/>
       <c r="J6" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0046d#0012</v>
+        <v>obj_00320#0001</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="M6" s="95" t="str">
-        <f t="shared" si="2"/>
-        <v>obj_0046d#0012</v>
+        <f t="shared" si="3"/>
+        <v>obj_00320#0001</v>
       </c>
       <c r="N6" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M6,Trigger),"--")</f>
@@ -2429,7 +2434,7 @@
       </c>
       <c r="O6" s="99">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M6,Trigger),"--")</f>
-        <v>1.4599999999999999E-3</v>
+        <v>1.5399999999999999E-3</v>
       </c>
       <c r="P6" s="98" t="b">
         <v>1</v>
@@ -2442,18 +2447,18 @@
       </c>
       <c r="S6" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M6,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T6" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M6,Trigger),"--")</f>
-        <v>42191</v>
+        <v>42264</v>
       </c>
       <c r="V6" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X6,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="W6" s="3" t="str">
-        <v>obj_0046d</v>
+        <v>obj_00320</v>
       </c>
       <c r="X6" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W6,Trigger),"")</f>
@@ -2461,7 +2466,7 @@
       </c>
       <c r="Y6" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W6,Trigger),"")</f>
-        <v>1.4599999999999999E-3</v>
+        <v>1.5399999999999999E-3</v>
       </c>
       <c r="Z6" s="105" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W6)),_xll.qlSwapRateHelperSpread($W6))</f>
@@ -2469,14 +2474,14 @@
       </c>
       <c r="AA6" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W6,Trigger),"")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="AB6" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W6,Trigger),"")</f>
-        <v>42191</v>
+        <v>42264</v>
       </c>
       <c r="AC6" s="68">
-        <v>1.9374267918516928E-3</v>
+        <v>1.8452571423215789E-3</v>
       </c>
       <c r="AE6" s="108" t="s">
         <v>88</v>
@@ -2484,7 +2489,7 @@
       <c r="AF6" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="AH6" s="163"/>
+      <c r="AH6" s="161"/>
     </row>
     <row r="7" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="58" t="s">
@@ -2494,7 +2499,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1M</v>
       </c>
       <c r="D7" s="126"/>
@@ -2502,7 +2507,7 @@
       <c r="F7" s="126"/>
       <c r="G7" s="60" t="str">
         <f>_xll.qlLibor(,Currency,C7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003df#0018</v>
+        <v>obj_0031a#0001</v>
       </c>
       <c r="H7" s="123" t="str">
         <f t="shared" si="0"/>
@@ -2511,16 +2516,16 @@
       <c r="I7" s="126"/>
       <c r="J7" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003e0#0019</v>
+        <v>obj_00321#0001</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="M7" s="95" t="str">
-        <f t="shared" si="2"/>
-        <v>obj_003e0#0019</v>
+        <f t="shared" si="3"/>
+        <v>obj_00321#0001</v>
       </c>
       <c r="N7" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M7,Trigger),"--")</f>
@@ -2528,7 +2533,7 @@
       </c>
       <c r="O7" s="99">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M7,Trigger),"--")</f>
-        <v>1.8599999999999999E-3</v>
+        <v>2.0299999999999997E-3</v>
       </c>
       <c r="P7" s="98" t="b">
         <v>1</v>
@@ -2541,18 +2546,18 @@
       </c>
       <c r="S7" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M7,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T7" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M7,Trigger),"--")</f>
-        <v>42214</v>
+        <v>42290</v>
       </c>
       <c r="V7" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X7,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="W7" s="3" t="str">
-        <v>obj_003e0</v>
+        <v>obj_00321</v>
       </c>
       <c r="X7" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W7,Trigger),"")</f>
@@ -2560,7 +2565,7 @@
       </c>
       <c r="Y7" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W7,Trigger),"")</f>
-        <v>1.8599999999999999E-3</v>
+        <v>2.0299999999999997E-3</v>
       </c>
       <c r="Z7" s="105" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W7)),_xll.qlSwapRateHelperSpread($W7))</f>
@@ -2568,16 +2573,16 @@
       </c>
       <c r="AA7" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W7,Trigger),"")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="AB7" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W7,Trigger),"")</f>
-        <v>42214</v>
+        <v>42290</v>
       </c>
       <c r="AC7" s="68">
-        <v>1.9858974481019244E-3</v>
-      </c>
-      <c r="AH7" s="163"/>
+        <v>2.1026243919511048E-3</v>
+      </c>
+      <c r="AH7" s="161"/>
     </row>
     <row r="8" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="58" t="s">
@@ -2587,7 +2592,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2M</v>
       </c>
       <c r="D8" s="126"/>
@@ -2595,7 +2600,7 @@
       <c r="F8" s="126"/>
       <c r="G8" s="60" t="str">
         <f>_xll.qlLibor(,Currency,C8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003cc#0017</v>
+        <v>obj_0031d#0001</v>
       </c>
       <c r="H8" s="123" t="str">
         <f t="shared" si="0"/>
@@ -2604,16 +2609,16 @@
       <c r="I8" s="126"/>
       <c r="J8" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H8,G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003e1#0018</v>
+        <v>obj_00322#0001</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="M8" s="95" t="str">
-        <f t="shared" si="2"/>
-        <v>obj_003e1#0018</v>
+        <f t="shared" si="3"/>
+        <v>obj_00322#0001</v>
       </c>
       <c r="N8" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M8,Trigger),"--")</f>
@@ -2621,7 +2626,7 @@
       </c>
       <c r="O8" s="99">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M8,Trigger),"--")</f>
-        <v>2.3400000000000001E-3</v>
+        <v>2.6855E-3</v>
       </c>
       <c r="P8" s="98" t="b">
         <v>1</v>
@@ -2634,18 +2639,18 @@
       </c>
       <c r="S8" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M8,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T8" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M8,Trigger),"--")</f>
-        <v>42244</v>
+        <v>42318</v>
       </c>
       <c r="V8" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X8,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="W8" s="3" t="str">
-        <v>obj_003e1</v>
+        <v>obj_00322</v>
       </c>
       <c r="X8" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W8,Trigger),"")</f>
@@ -2653,7 +2658,7 @@
       </c>
       <c r="Y8" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W8,Trigger),"")</f>
-        <v>2.3400000000000001E-3</v>
+        <v>2.6855E-3</v>
       </c>
       <c r="Z8" s="105" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W8)),_xll.qlSwapRateHelperSpread($W8))</f>
@@ -2661,16 +2666,16 @@
       </c>
       <c r="AA8" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W8,Trigger),"")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="AB8" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W8,Trigger),"")</f>
-        <v>42244</v>
+        <v>42318</v>
       </c>
       <c r="AC8" s="68">
-        <v>2.394877286097729E-3</v>
-      </c>
-      <c r="AH8" s="163"/>
+        <v>2.725884019396098E-3</v>
+      </c>
+      <c r="AH8" s="161"/>
     </row>
     <row r="9" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="58" t="s">
@@ -2680,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3M</v>
       </c>
       <c r="D9" s="126"/>
@@ -2688,7 +2693,7 @@
       <c r="F9" s="126"/>
       <c r="G9" s="60" t="str">
         <f>_xll.qlLibor(,Currency,C9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0046e#0012</v>
+        <v>obj_00314#0001</v>
       </c>
       <c r="H9" s="123" t="str">
         <f t="shared" si="0"/>
@@ -2697,16 +2702,16 @@
       <c r="I9" s="126"/>
       <c r="J9" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H9,G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0046f#0013</v>
+        <v>obj_00315#0001</v>
       </c>
       <c r="K9" s="48"/>
       <c r="L9" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="M9" s="95" t="str">
-        <f t="shared" si="2"/>
-        <v>obj_0046f#0013</v>
+        <f t="shared" si="3"/>
+        <v>obj_00315#0001</v>
       </c>
       <c r="N9" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M9,Trigger),"--")</f>
@@ -2714,7 +2719,7 @@
       </c>
       <c r="O9" s="99">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M9,Trigger),"--")</f>
-        <v>2.8199999999999996E-3</v>
+        <v>3.3199999999999996E-3</v>
       </c>
       <c r="P9" s="98" t="b">
         <v>1</v>
@@ -2727,43 +2732,43 @@
       </c>
       <c r="S9" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M9,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T9" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M9,Trigger),"--")</f>
-        <v>42276</v>
+        <v>42348</v>
       </c>
       <c r="V9" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X9,$N$3:$N$71,0),1),"")</f>
-        <v>Dp</v>
+        <f t="shared" si="1"/>
+        <v>FUT</v>
       </c>
       <c r="W9" s="3" t="str">
-        <v>obj_0046f</v>
+        <v>obj_00335</v>
       </c>
       <c r="X9" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W9,Trigger),"")</f>
-        <v>USD3MD_Quote</v>
+        <v>USDFUT3MU5_Quote</v>
       </c>
       <c r="Y9" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W9,Trigger),"")</f>
-        <v>2.8199999999999996E-3</v>
-      </c>
-      <c r="Z9" s="105" t="str">
+        <v>3.4370538179827846E-3</v>
+      </c>
+      <c r="Z9" s="105">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W9)),_xll.qlSwapRateHelperSpread($W9))</f>
-        <v/>
+        <v>4.4618201719769934E-7</v>
       </c>
       <c r="AA9" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W9,Trigger),"")</f>
-        <v>42184</v>
+        <v>42263</v>
       </c>
       <c r="AB9" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W9,Trigger),"")</f>
-        <v>42276</v>
+        <v>42354</v>
       </c>
       <c r="AC9" s="68">
-        <v>2.8531093011555327E-3</v>
-      </c>
-      <c r="AH9" s="163"/>
+        <v>3.3642945370357595E-3</v>
+      </c>
+      <c r="AH9" s="161"/>
     </row>
     <row r="10" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="58" t="s">
@@ -2773,7 +2778,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6M</v>
       </c>
       <c r="D10" s="126"/>
@@ -2781,7 +2786,7 @@
       <c r="F10" s="126"/>
       <c r="G10" s="60" t="str">
         <f>_xll.qlLibor(,Currency,C10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00470#0012</v>
+        <v>obj_00316#0001</v>
       </c>
       <c r="H10" s="123" t="str">
         <f t="shared" si="0"/>
@@ -2791,11 +2796,11 @@
       <c r="J10" s="62"/>
       <c r="K10" s="48"/>
       <c r="L10" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="M10" s="95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>--</v>
       </c>
       <c r="N10" s="148" t="str">
@@ -2824,36 +2829,36 @@
         <v>--</v>
       </c>
       <c r="V10" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X10,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>FUT</v>
       </c>
       <c r="W10" s="3" t="str">
-        <v>obj_00453</v>
+        <v>obj_00334</v>
       </c>
       <c r="X10" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W10,Trigger),"")</f>
-        <v>USDFUT3MU5_Quote</v>
+        <v>USDFUT3MZ5_Quote</v>
       </c>
       <c r="Y10" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W10,Trigger),"")</f>
-        <v>3.8180072705969316E-3</v>
+        <v>4.8168832263151308E-3</v>
       </c>
       <c r="Z10" s="105">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W10)),_xll.qlSwapRateHelperSpread($W10))</f>
-        <v>6.9927294030357135E-6</v>
+        <v>8.1167736848374994E-6</v>
       </c>
       <c r="AA10" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W10,Trigger),"")</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="AB10" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W10,Trigger),"")</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="AC10" s="68">
-        <v>3.2956976018923521E-3</v>
-      </c>
-      <c r="AH10" s="163"/>
+        <v>4.0906273241313488E-3</v>
+      </c>
+      <c r="AH10" s="161"/>
     </row>
     <row r="11" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -2863,7 +2868,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1Y</v>
       </c>
       <c r="D11" s="127"/>
@@ -2871,7 +2876,7 @@
       <c r="F11" s="127"/>
       <c r="G11" s="6" t="str">
         <f>_xll.qlLibor(,Currency,C11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00471#0012</v>
+        <v>obj_00317#0001</v>
       </c>
       <c r="H11" s="124" t="str">
         <f t="shared" si="0"/>
@@ -2881,11 +2886,11 @@
       <c r="J11" s="2"/>
       <c r="K11" s="48"/>
       <c r="L11" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="M11" s="96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>--</v>
       </c>
       <c r="N11" s="149" t="str">
@@ -2914,36 +2919,36 @@
         <v>--</v>
       </c>
       <c r="V11" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X11,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>FUT</v>
       </c>
       <c r="W11" s="3" t="str">
-        <v>obj_00455</v>
+        <v>obj_00339</v>
       </c>
       <c r="X11" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W11,Trigger),"")</f>
-        <v>USDFUT3MZ5_Quote</v>
+        <v>USDFUT3MH6_Quote</v>
       </c>
       <c r="Y11" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W11,Trigger),"")</f>
-        <v>5.6554328150297027E-3</v>
+        <v>6.104405001778699E-3</v>
       </c>
       <c r="Z11" s="105">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W11)),_xll.qlSwapRateHelperSpread($W11))</f>
-        <v>1.9567184970283144E-5</v>
+        <v>2.0594998221237348E-5</v>
       </c>
       <c r="AA11" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W11,Trigger),"")</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="AB11" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W11,Trigger),"")</f>
-        <v>42445</v>
+        <v>42537</v>
       </c>
       <c r="AC11" s="68">
-        <v>4.1315886564422828E-3</v>
-      </c>
-      <c r="AH11" s="163"/>
+        <v>4.7736909427556172E-3</v>
+      </c>
+      <c r="AH11" s="161"/>
     </row>
     <row r="12" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="47"/>
@@ -2959,20 +2964,20 @@
         <v>47</v>
       </c>
       <c r="L12" s="66" t="str">
-        <f>A14</f>
+        <f t="shared" ref="L12:L33" si="5">A14</f>
         <v>FUT</v>
       </c>
       <c r="M12" s="133" t="str">
-        <f>IF(ISBLANK(J14),"--",J14)</f>
-        <v>obj_00451#0017</v>
+        <f t="shared" ref="M12:M33" si="6">IF(ISBLANK(J14),"--",J14)</f>
+        <v>obj_00335#0001</v>
       </c>
       <c r="N12" s="147" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M12,Trigger),"--")</f>
-        <v>USDFUT3MN5_Quote</v>
+        <v>USDFUT3MU5_Quote</v>
       </c>
       <c r="O12" s="152">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M12,Trigger),"--")</f>
-        <v>99.706249999999997</v>
+        <v>99.65625</v>
       </c>
       <c r="P12" s="134" t="b">
         <v>1</v>
@@ -2985,43 +2990,43 @@
       </c>
       <c r="S12" s="136">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M12,Trigger),"--")</f>
-        <v>42200</v>
+        <v>42263</v>
       </c>
       <c r="T12" s="136">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M12,Trigger),"--")</f>
-        <v>42292</v>
+        <v>42354</v>
       </c>
       <c r="V12" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X12,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>FUT</v>
       </c>
       <c r="W12" s="3" t="str">
-        <v>obj_00457</v>
+        <v>obj_0033a</v>
       </c>
       <c r="X12" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W12,Trigger),"")</f>
-        <v>USDFUT3MH6_Quote</v>
+        <v>USDFUT3MM6_Quote</v>
       </c>
       <c r="Y12" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W12,Trigger),"")</f>
-        <v>7.5376664666943326E-3</v>
+        <v>7.637386173847089E-3</v>
       </c>
       <c r="Z12" s="105">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W12)),_xll.qlSwapRateHelperSpread($W12))</f>
-        <v>3.7333533305554431E-5</v>
+        <v>3.7613826152898039E-5</v>
       </c>
       <c r="AA12" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W12,Trigger),"")</f>
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="AB12" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W12,Trigger),"")</f>
-        <v>42537</v>
+        <v>42628</v>
       </c>
       <c r="AC12" s="68">
-        <v>5.03442984577875E-3</v>
-      </c>
-      <c r="AH12" s="163"/>
+        <v>5.4987263630684197E-3</v>
+      </c>
+      <c r="AH12" s="161"/>
     </row>
     <row r="13" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
@@ -3050,20 +3055,20 @@
       </c>
       <c r="K13" s="48"/>
       <c r="L13" s="9" t="str">
-        <f>A15</f>
+        <f t="shared" si="5"/>
         <v>FUT</v>
       </c>
       <c r="M13" s="95" t="str">
-        <f>IF(ISBLANK(J15),"--",J15)</f>
-        <v>obj_00454#0017</v>
+        <f t="shared" si="6"/>
+        <v>obj_00338#0001</v>
       </c>
       <c r="N13" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M13,Trigger),"--")</f>
-        <v>USDFUT3MQ5_Quote</v>
+        <v>USDFUT3MV5_Quote</v>
       </c>
       <c r="O13" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M13,Trigger),"--")</f>
-        <v>99.662499999999994</v>
+        <v>99.592500000000001</v>
       </c>
       <c r="P13" s="98" t="b">
         <v>1</v>
@@ -3076,43 +3081,43 @@
       </c>
       <c r="S13" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M13,Trigger),"--")</f>
-        <v>42235</v>
+        <v>42298</v>
       </c>
       <c r="T13" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M13,Trigger),"--")</f>
-        <v>42327</v>
+        <v>42390</v>
       </c>
       <c r="V13" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X13,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>FUT</v>
       </c>
       <c r="W13" s="3" t="str">
-        <v>obj_00458</v>
+        <v>obj_0033b</v>
       </c>
       <c r="X13" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W13,Trigger),"")</f>
-        <v>USDFUT3MM6_Quote</v>
+        <v>USDFUT3MU6_Quote</v>
       </c>
       <c r="Y13" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W13,Trigger),"")</f>
-        <v>9.6150869816306918E-3</v>
+        <v>9.3642442569190649E-3</v>
       </c>
       <c r="Z13" s="105">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W13)),_xll.qlSwapRateHelperSpread($W13))</f>
-        <v>5.991301836929764E-5</v>
+        <v>6.0755743080840787E-5</v>
       </c>
       <c r="AA13" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W13,Trigger),"")</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="AB13" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W13,Trigger),"")</f>
-        <v>42628</v>
+        <v>42725</v>
       </c>
       <c r="AC13" s="68">
-        <v>5.9922707062159235E-3</v>
-      </c>
-      <c r="AH13" s="163"/>
+        <v>6.3106647996998833E-3</v>
+      </c>
+      <c r="AH13" s="161"/>
     </row>
     <row r="14" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
@@ -3123,43 +3128,43 @@
       </c>
       <c r="C14" s="56" t="str">
         <f>_xll.qlIMMNextCode(Evaluationdate-1,B14,Trigger)</f>
-        <v>N5</v>
+        <v>U5</v>
       </c>
       <c r="D14" s="132"/>
       <c r="E14" s="132"/>
       <c r="F14" s="132"/>
       <c r="G14" s="55" t="str">
-        <f t="shared" ref="G14:G35" si="4">PROPER(Currency)&amp;FamilyName&amp;$G$1</f>
+        <f t="shared" ref="G14:G35" si="7">PROPER(Currency)&amp;FamilyName&amp;$G$1</f>
         <v>UsdLibor3M</v>
       </c>
       <c r="H14" s="119" t="str">
-        <f t="shared" ref="H14:H35" si="5">Currency&amp;"FUT"&amp;$G$1&amp;$C14&amp;QuoteSuffix</f>
-        <v>USDFUT3MN5_Quote</v>
+        <f t="shared" ref="H14:H35" si="8">Currency&amp;"FUT"&amp;$G$1&amp;$C14&amp;QuoteSuffix</f>
+        <v>USDFUT3MU5_Quote</v>
       </c>
       <c r="I14" s="119" t="str">
-        <f t="shared" ref="I14:I35" si="6">Currency&amp;"FUT"&amp;$G$1&amp;$C14&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>USDFUT3MN5ConvAdj_Quote</v>
+        <f t="shared" ref="I14:I35" si="9">Currency&amp;"FUT"&amp;$G$1&amp;$C14&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <v>USDFUT3MU5ConvAdj_Quote</v>
       </c>
       <c r="J14" s="57" t="str">
         <f>_xll.qlFuturesRateHelper(,H14,$H$12,C14,G14,I14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00451#0017</v>
+        <v>obj_00335#0001</v>
       </c>
       <c r="K14" s="48"/>
       <c r="L14" s="9" t="str">
-        <f>A16</f>
+        <f t="shared" si="5"/>
         <v>FUT</v>
       </c>
       <c r="M14" s="95" t="str">
-        <f>IF(ISBLANK(J16),"--",J16)</f>
-        <v>obj_00453#0017</v>
+        <f t="shared" si="6"/>
+        <v>obj_00337#0001</v>
       </c>
       <c r="N14" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M14,Trigger),"--")</f>
-        <v>USDFUT3MU5_Quote</v>
+        <v>USDFUT3MX5_Quote</v>
       </c>
       <c r="O14" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M14,Trigger),"--")</f>
-        <v>99.617500000000007</v>
+        <v>99.557500000000005</v>
       </c>
       <c r="P14" s="98" t="b">
         <v>1</v>
@@ -3172,43 +3177,43 @@
       </c>
       <c r="S14" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M14,Trigger),"--")</f>
-        <v>42263</v>
+        <v>42326</v>
       </c>
       <c r="T14" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M14,Trigger),"--")</f>
-        <v>42354</v>
+        <v>42418</v>
       </c>
       <c r="V14" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X14,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>FUT</v>
       </c>
       <c r="W14" s="3" t="str">
-        <v>obj_00459</v>
+        <v>obj_0033c</v>
       </c>
       <c r="X14" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W14,Trigger),"")</f>
-        <v>USDFUT3MU6_Quote</v>
+        <v>USDFUT3MZ6_Quote</v>
       </c>
       <c r="Y14" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W14,Trigger),"")</f>
-        <v>1.1935664183932061E-2</v>
+        <v>1.1188300827818833E-2</v>
       </c>
       <c r="Z14" s="105">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W14)),_xll.qlSwapRateHelperSpread($W14))</f>
-        <v>8.9335816067890737E-5</v>
+        <v>8.6699172181091194E-5</v>
       </c>
       <c r="AA14" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W14,Trigger),"")</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="AB14" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W14,Trigger),"")</f>
-        <v>42725</v>
+        <v>42815</v>
       </c>
       <c r="AC14" s="68">
-        <v>7.0645428201666508E-3</v>
-      </c>
-      <c r="AH14" s="163"/>
+        <v>7.1169995551010759E-3</v>
+      </c>
+      <c r="AH14" s="161"/>
     </row>
     <row r="15" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="58" t="s">
@@ -3219,43 +3224,43 @@
       </c>
       <c r="C15" s="61" t="str">
         <f>_xll.qlIMMNextCode(C14,B15,Trigger)</f>
-        <v>Q5</v>
+        <v>V5</v>
       </c>
       <c r="D15" s="126"/>
       <c r="E15" s="126"/>
       <c r="F15" s="126"/>
       <c r="G15" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H15" s="120" t="str">
-        <f t="shared" si="5"/>
-        <v>USDFUT3MQ5_Quote</v>
+        <f t="shared" si="8"/>
+        <v>USDFUT3MV5_Quote</v>
       </c>
       <c r="I15" s="120" t="str">
-        <f t="shared" si="6"/>
-        <v>USDFUT3MQ5ConvAdj_Quote</v>
+        <f t="shared" si="9"/>
+        <v>USDFUT3MV5ConvAdj_Quote</v>
       </c>
       <c r="J15" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H15,$H$12,C15,G15,I15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00454#0017</v>
+        <v>obj_00338#0001</v>
       </c>
       <c r="K15" s="48"/>
       <c r="L15" s="9" t="str">
-        <f>A17</f>
+        <f t="shared" si="5"/>
         <v>FUT</v>
       </c>
       <c r="M15" s="95" t="str">
-        <f>IF(ISBLANK(J17),"--",J17)</f>
-        <v>obj_00450#0017</v>
+        <f t="shared" si="6"/>
+        <v>obj_00334#0001</v>
       </c>
       <c r="N15" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M15,Trigger),"--")</f>
-        <v>USDFUT3MV5_Quote</v>
+        <v>USDFUT3MZ5_Quote</v>
       </c>
       <c r="O15" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M15,Trigger),"--")</f>
-        <v>99.547499999999999</v>
+        <v>99.517499999999998</v>
       </c>
       <c r="P15" s="98" t="b">
         <v>1</v>
@@ -3268,43 +3273,43 @@
       </c>
       <c r="S15" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M15,Trigger),"--")</f>
-        <v>42298</v>
+        <v>42354</v>
       </c>
       <c r="T15" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M15,Trigger),"--")</f>
-        <v>42390</v>
+        <v>42445</v>
       </c>
       <c r="V15" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X15,$N$3:$N$71,0),1),"")</f>
-        <v>FUT</v>
+        <f t="shared" si="1"/>
+        <v>Sw</v>
       </c>
       <c r="W15" s="3" t="str">
-        <v>obj_0045a</v>
+        <v>obj_00319</v>
       </c>
       <c r="X15" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W15,Trigger),"")</f>
-        <v>USDFUT3MZ6_Quote</v>
+        <v>USDAM3L2Y_Quote</v>
       </c>
       <c r="Y15" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W15,Trigger),"")</f>
-        <v>1.4203577856929892E-2</v>
+        <v>8.539999999999999E-3</v>
       </c>
       <c r="Z15" s="105">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W15)),_xll.qlSwapRateHelperSpread($W15))</f>
-        <v>1.2142214307014105E-4</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W15,Trigger),"")</f>
-        <v>42725</v>
+        <v>42257</v>
       </c>
       <c r="AB15" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W15,Trigger),"")</f>
-        <v>42815</v>
+        <v>42989</v>
       </c>
       <c r="AC15" s="68">
-        <v>8.1007191085151666E-3</v>
-      </c>
-      <c r="AH15" s="163"/>
+        <v>8.6070054521104663E-3</v>
+      </c>
+      <c r="AH15" s="161"/>
     </row>
     <row r="16" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="58" t="s">
@@ -3315,43 +3320,43 @@
       </c>
       <c r="C16" s="61" t="str">
         <f>_xll.qlIMMNextCode(C15,B16,Trigger)</f>
-        <v>U5</v>
+        <v>X5</v>
       </c>
       <c r="D16" s="126"/>
       <c r="E16" s="126"/>
       <c r="F16" s="126"/>
       <c r="G16" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H16" s="120" t="str">
-        <f t="shared" si="5"/>
-        <v>USDFUT3MU5_Quote</v>
+        <f t="shared" si="8"/>
+        <v>USDFUT3MX5_Quote</v>
       </c>
       <c r="I16" s="120" t="str">
-        <f t="shared" si="6"/>
-        <v>USDFUT3MU5ConvAdj_Quote</v>
+        <f t="shared" si="9"/>
+        <v>USDFUT3MX5ConvAdj_Quote</v>
       </c>
       <c r="J16" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H16,$H$12,C16,G16,I16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00453#0017</v>
+        <v>obj_00337#0001</v>
       </c>
       <c r="K16" s="48"/>
       <c r="L16" s="9" t="str">
-        <f>A18</f>
+        <f t="shared" si="5"/>
         <v>FUT</v>
       </c>
       <c r="M16" s="95" t="str">
-        <f>IF(ISBLANK(J18),"--",J18)</f>
-        <v>obj_00452#0017</v>
+        <f t="shared" si="6"/>
+        <v>obj_00336#0001</v>
       </c>
       <c r="N16" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M16,Trigger),"--")</f>
-        <v>USDFUT3MX5_Quote</v>
+        <v>USDFUT3MF6_Quote</v>
       </c>
       <c r="O16" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M16,Trigger),"--")</f>
-        <v>99.492500000000007</v>
+        <v>99.477499999999992</v>
       </c>
       <c r="P16" s="98" t="b">
         <v>1</v>
@@ -3364,26 +3369,26 @@
       </c>
       <c r="S16" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M16,Trigger),"--")</f>
-        <v>42326</v>
+        <v>42389</v>
       </c>
       <c r="T16" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M16,Trigger),"--")</f>
-        <v>42418</v>
+        <v>42480</v>
       </c>
       <c r="V16" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X16,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W16" s="3" t="str">
-        <v>obj_00486</v>
+        <v>obj_0032c</v>
       </c>
       <c r="X16" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W16,Trigger),"")</f>
-        <v>USDAM3L2Y_Quote</v>
+        <v>USDAM3L3Y_Quote</v>
       </c>
       <c r="Y16" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W16,Trigger),"")</f>
-        <v>9.130000000000001E-3</v>
+        <v>1.1339999999999999E-2</v>
       </c>
       <c r="Z16" s="105">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W16)),_xll.qlSwapRateHelperSpread($W16))</f>
@@ -3391,16 +3396,16 @@
       </c>
       <c r="AA16" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W16,Trigger),"")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="AB16" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W16,Trigger),"")</f>
-        <v>42915</v>
+        <v>43353</v>
       </c>
       <c r="AC16" s="68">
-        <v>9.1975199819984161E-3</v>
-      </c>
-      <c r="AH16" s="163"/>
+        <v>1.1452871785900676E-2</v>
+      </c>
+      <c r="AH16" s="161"/>
     </row>
     <row r="17" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="58" t="s">
@@ -3411,43 +3416,43 @@
       </c>
       <c r="C17" s="61" t="str">
         <f>_xll.qlIMMNextCode(C16,B17,Trigger)</f>
-        <v>V5</v>
+        <v>Z5</v>
       </c>
       <c r="D17" s="126"/>
       <c r="E17" s="126"/>
       <c r="F17" s="126"/>
       <c r="G17" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H17" s="120" t="str">
-        <f t="shared" si="5"/>
-        <v>USDFUT3MV5_Quote</v>
+        <f t="shared" si="8"/>
+        <v>USDFUT3MZ5_Quote</v>
       </c>
       <c r="I17" s="120" t="str">
-        <f t="shared" si="6"/>
-        <v>USDFUT3MV5ConvAdj_Quote</v>
+        <f t="shared" si="9"/>
+        <v>USDFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="J17" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H17,$H$12,C17,G17,I17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00450#0017</v>
+        <v>obj_00334#0001</v>
       </c>
       <c r="K17" s="48"/>
       <c r="L17" s="9" t="str">
-        <f>A19</f>
+        <f t="shared" si="5"/>
         <v>FUT</v>
       </c>
       <c r="M17" s="95" t="str">
-        <f>IF(ISBLANK(J19),"--",J19)</f>
-        <v>obj_00455#0017</v>
+        <f t="shared" si="6"/>
+        <v>obj_00339#0001</v>
       </c>
       <c r="N17" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M17,Trigger),"--")</f>
-        <v>USDFUT3MZ5_Quote</v>
+        <v>USDFUT3MH6_Quote</v>
       </c>
       <c r="O17" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M17,Trigger),"--")</f>
-        <v>99.432500000000005</v>
+        <v>99.387500000000003</v>
       </c>
       <c r="P17" s="98" t="b">
         <v>1</v>
@@ -3460,26 +3465,26 @@
       </c>
       <c r="S17" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M17,Trigger),"--")</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="T17" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M17,Trigger),"--")</f>
-        <v>42445</v>
+        <v>42537</v>
       </c>
       <c r="V17" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X17,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W17" s="3" t="str">
-        <v>obj_00406</v>
+        <v>obj_00329</v>
       </c>
       <c r="X17" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W17,Trigger),"")</f>
-        <v>USDAM3L3Y_Quote</v>
+        <v>USDAM3L4Y_Quote</v>
       </c>
       <c r="Y17" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W17,Trigger),"")</f>
-        <v>1.2749999999999999E-2</v>
+        <v>1.3729999999999999E-2</v>
       </c>
       <c r="Z17" s="105">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W17)),_xll.qlSwapRateHelperSpread($W17))</f>
@@ -3487,16 +3492,16 @@
       </c>
       <c r="AA17" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W17,Trigger),"")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="AB17" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W17,Trigger),"")</f>
-        <v>43280</v>
+        <v>43718</v>
       </c>
       <c r="AC17" s="68">
-        <v>1.2872089158473411E-2</v>
-      </c>
-      <c r="AH17" s="163"/>
+        <v>1.3895081479232093E-2</v>
+      </c>
+      <c r="AH17" s="161"/>
     </row>
     <row r="18" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -3507,43 +3512,43 @@
       </c>
       <c r="C18" s="8" t="str">
         <f>_xll.qlIMMNextCode(C17,B18,Trigger)</f>
-        <v>X5</v>
+        <v>F6</v>
       </c>
       <c r="D18" s="127"/>
       <c r="E18" s="127"/>
       <c r="F18" s="127"/>
       <c r="G18" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H18" s="121" t="str">
-        <f t="shared" si="5"/>
-        <v>USDFUT3MX5_Quote</v>
+        <f t="shared" si="8"/>
+        <v>USDFUT3MF6_Quote</v>
       </c>
       <c r="I18" s="121" t="str">
-        <f t="shared" si="6"/>
-        <v>USDFUT3MX5ConvAdj_Quote</v>
+        <f t="shared" si="9"/>
+        <v>USDFUT3MF6ConvAdj_Quote</v>
       </c>
       <c r="J18" s="2" t="str">
         <f>_xll.qlFuturesRateHelper(,H18,$H$12,C18,G18,I18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00452#0017</v>
+        <v>obj_00336#0001</v>
       </c>
       <c r="K18" s="48"/>
       <c r="L18" s="9" t="str">
-        <f>A20</f>
+        <f t="shared" si="5"/>
         <v>FUT</v>
       </c>
       <c r="M18" s="95" t="str">
-        <f>IF(ISBLANK(J20),"--",J20)</f>
-        <v>obj_00457#0017</v>
+        <f t="shared" si="6"/>
+        <v>obj_0033a#0001</v>
       </c>
       <c r="N18" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M18,Trigger),"--")</f>
-        <v>USDFUT3MH6_Quote</v>
+        <v>USDFUT3MM6_Quote</v>
       </c>
       <c r="O18" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M18,Trigger),"--")</f>
-        <v>99.242500000000007</v>
+        <v>99.232500000000002</v>
       </c>
       <c r="P18" s="98" t="b">
         <v>1</v>
@@ -3556,26 +3561,26 @@
       </c>
       <c r="S18" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M18,Trigger),"--")</f>
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="T18" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M18,Trigger),"--")</f>
-        <v>42537</v>
+        <v>42628</v>
       </c>
       <c r="V18" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X18,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W18" s="3" t="str">
-        <v>obj_00404</v>
+        <v>obj_0032b</v>
       </c>
       <c r="X18" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W18,Trigger),"")</f>
-        <v>USDAM3L4Y_Quote</v>
+        <v>USDAM3L5Y_Quote</v>
       </c>
       <c r="Y18" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W18,Trigger),"")</f>
-        <v>1.5740000000000001E-2</v>
+        <v>1.5769999999999999E-2</v>
       </c>
       <c r="Z18" s="105">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W18)),_xll.qlSwapRateHelperSpread($W18))</f>
@@ -3583,16 +3588,16 @@
       </c>
       <c r="AA18" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W18,Trigger),"")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="AB18" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W18,Trigger),"")</f>
-        <v>43644</v>
+        <v>44084</v>
       </c>
       <c r="AC18" s="68">
-        <v>1.5929876948245322E-2</v>
-      </c>
-      <c r="AH18" s="163"/>
+        <v>1.5994515444885553E-2</v>
+      </c>
+      <c r="AH18" s="161"/>
     </row>
     <row r="19" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="58" t="s">
@@ -3603,43 +3608,43 @@
       </c>
       <c r="C19" s="61" t="str">
         <f>_xll.qlIMMNextCode(C18,B19,Trigger)</f>
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="D19" s="126"/>
       <c r="E19" s="126"/>
       <c r="F19" s="126"/>
       <c r="G19" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H19" s="120" t="str">
-        <f t="shared" si="5"/>
-        <v>USDFUT3MZ5_Quote</v>
+        <f t="shared" si="8"/>
+        <v>USDFUT3MH6_Quote</v>
       </c>
       <c r="I19" s="120" t="str">
-        <f t="shared" si="6"/>
-        <v>USDFUT3MZ5ConvAdj_Quote</v>
+        <f t="shared" si="9"/>
+        <v>USDFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="J19" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H19,$H$12,C19,G19,I19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00455#0017</v>
+        <v>obj_00339#0001</v>
       </c>
       <c r="K19" s="48"/>
       <c r="L19" s="9" t="str">
-        <f>A21</f>
+        <f t="shared" si="5"/>
         <v>FUT</v>
       </c>
       <c r="M19" s="95" t="str">
-        <f>IF(ISBLANK(J21),"--",J21)</f>
-        <v>obj_00458#0017</v>
+        <f t="shared" si="6"/>
+        <v>obj_0033b#0001</v>
       </c>
       <c r="N19" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M19,Trigger),"--")</f>
-        <v>USDFUT3MM6_Quote</v>
+        <v>USDFUT3MU6_Quote</v>
       </c>
       <c r="O19" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M19,Trigger),"--")</f>
-        <v>99.032499999999999</v>
+        <v>99.057500000000005</v>
       </c>
       <c r="P19" s="98" t="b">
         <v>1</v>
@@ -3652,26 +3657,26 @@
       </c>
       <c r="S19" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M19,Trigger),"--")</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="T19" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M19,Trigger),"--")</f>
-        <v>42628</v>
+        <v>42725</v>
       </c>
       <c r="V19" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X19,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W19" s="3" t="str">
-        <v>obj_00405</v>
+        <v>obj_00331</v>
       </c>
       <c r="X19" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W19,Trigger),"")</f>
-        <v>USDAM3L5Y_Quote</v>
+        <v>USDAM3L6Y_Quote</v>
       </c>
       <c r="Y19" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W19,Trigger),"")</f>
-        <v>1.8189999999999998E-2</v>
+        <v>1.7520000000000001E-2</v>
       </c>
       <c r="Z19" s="105">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W19)),_xll.qlSwapRateHelperSpread($W19))</f>
@@ -3679,16 +3684,16 @@
       </c>
       <c r="AA19" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W19,Trigger),"")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="AB19" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W19,Trigger),"")</f>
-        <v>44011</v>
+        <v>44449</v>
       </c>
       <c r="AC19" s="68">
-        <v>1.8456522147498256E-2</v>
-      </c>
-      <c r="AH19" s="163"/>
+        <v>1.7810741266284475E-2</v>
+      </c>
+      <c r="AH19" s="161"/>
     </row>
     <row r="20" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="58" t="s">
@@ -3699,43 +3704,43 @@
       </c>
       <c r="C20" s="61" t="str">
         <f>_xll.qlIMMNextCode(C19,B20,Trigger)</f>
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="D20" s="126"/>
       <c r="E20" s="126"/>
       <c r="F20" s="126"/>
       <c r="G20" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H20" s="120" t="str">
-        <f t="shared" si="5"/>
-        <v>USDFUT3MH6_Quote</v>
+        <f t="shared" si="8"/>
+        <v>USDFUT3MM6_Quote</v>
       </c>
       <c r="I20" s="120" t="str">
-        <f t="shared" si="6"/>
-        <v>USDFUT3MH6ConvAdj_Quote</v>
+        <f t="shared" si="9"/>
+        <v>USDFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="J20" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H20,$H$12,C20,G20,I20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00457#0017</v>
+        <v>obj_0033a#0001</v>
       </c>
       <c r="K20" s="48"/>
       <c r="L20" s="9" t="str">
-        <f>A22</f>
+        <f t="shared" si="5"/>
         <v>FUT</v>
       </c>
       <c r="M20" s="95" t="str">
-        <f>IF(ISBLANK(J22),"--",J22)</f>
-        <v>obj_00459#0017</v>
+        <f t="shared" si="6"/>
+        <v>obj_0033c#0001</v>
       </c>
       <c r="N20" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M20,Trigger),"--")</f>
-        <v>USDFUT3MU6_Quote</v>
+        <v>USDFUT3MZ6_Quote</v>
       </c>
       <c r="O20" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M20,Trigger),"--")</f>
-        <v>98.797499999999999</v>
+        <v>98.872500000000002</v>
       </c>
       <c r="P20" s="98" t="b">
         <v>1</v>
@@ -3748,26 +3753,26 @@
       </c>
       <c r="S20" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M20,Trigger),"--")</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="T20" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M20,Trigger),"--")</f>
-        <v>42725</v>
+        <v>42815</v>
       </c>
       <c r="V20" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X20,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W20" s="3" t="str">
-        <v>obj_00409</v>
+        <v>obj_0032a</v>
       </c>
       <c r="X20" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W20,Trigger),"")</f>
-        <v>USDAM3L6Y_Quote</v>
+        <v>USDAM3L7Y_Quote</v>
       </c>
       <c r="Y20" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W20,Trigger),"")</f>
-        <v>2.0160000000000001E-2</v>
+        <v>1.9009999999999999E-2</v>
       </c>
       <c r="Z20" s="105">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W20)),_xll.qlSwapRateHelperSpread($W20))</f>
@@ -3775,16 +3780,16 @@
       </c>
       <c r="AA20" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W20,Trigger),"")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="AB20" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W20,Trigger),"")</f>
-        <v>44376</v>
+        <v>44816</v>
       </c>
       <c r="AC20" s="68">
-        <v>2.0506803957583114E-2</v>
-      </c>
-      <c r="AH20" s="163"/>
+        <v>1.937042697999472E-2</v>
+      </c>
+      <c r="AH20" s="161"/>
     </row>
     <row r="21" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="58" t="s">
@@ -3795,43 +3800,43 @@
       </c>
       <c r="C21" s="61" t="str">
         <f>_xll.qlIMMNextCode(C20,B21,Trigger)</f>
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="D21" s="126"/>
       <c r="E21" s="126"/>
       <c r="F21" s="126"/>
       <c r="G21" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H21" s="120" t="str">
-        <f t="shared" si="5"/>
-        <v>USDFUT3MM6_Quote</v>
+        <f t="shared" si="8"/>
+        <v>USDFUT3MU6_Quote</v>
       </c>
       <c r="I21" s="120" t="str">
-        <f t="shared" si="6"/>
-        <v>USDFUT3MM6ConvAdj_Quote</v>
+        <f t="shared" si="9"/>
+        <v>USDFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="J21" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H21,$H$12,C21,G21,I21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00458#0017</v>
+        <v>obj_0033b#0001</v>
       </c>
       <c r="K21" s="48"/>
       <c r="L21" s="9" t="str">
-        <f>A23</f>
+        <f t="shared" si="5"/>
         <v>FUT</v>
       </c>
       <c r="M21" s="95" t="str">
-        <f>IF(ISBLANK(J23),"--",J23)</f>
-        <v>obj_0045a#0017</v>
+        <f t="shared" si="6"/>
+        <v>obj_0033d#0001</v>
       </c>
       <c r="N21" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M21,Trigger),"--")</f>
-        <v>USDFUT3MZ6_Quote</v>
+        <v>USDFUT3MH7_Quote</v>
       </c>
       <c r="O21" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M21,Trigger),"--")</f>
-        <v>98.567499999999995</v>
+        <v>98.717500000000001</v>
       </c>
       <c r="P21" s="98" t="b">
         <v>1</v>
@@ -3844,26 +3849,26 @@
       </c>
       <c r="S21" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M21,Trigger),"--")</f>
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="T21" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M21,Trigger),"--")</f>
-        <v>42815</v>
+        <v>42901</v>
       </c>
       <c r="V21" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X21,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W21" s="3" t="str">
-        <v>obj_00414</v>
+        <v>obj_00325</v>
       </c>
       <c r="X21" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W21,Trigger),"")</f>
-        <v>USDAM3L7Y_Quote</v>
+        <v>USDAM3L8Y_Quote</v>
       </c>
       <c r="Y21" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W21,Trigger),"")</f>
-        <v>2.1720000000000003E-2</v>
+        <v>2.0219999999999998E-2</v>
       </c>
       <c r="Z21" s="105">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W21)),_xll.qlSwapRateHelperSpread($W21))</f>
@@ -3871,16 +3876,16 @@
       </c>
       <c r="AA21" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W21,Trigger),"")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="AB21" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W21,Trigger),"")</f>
-        <v>44741</v>
+        <v>45180</v>
       </c>
       <c r="AC21" s="68">
-        <v>2.2143852385349268E-2</v>
-      </c>
-      <c r="AH21" s="163"/>
+        <v>2.0647148764555513E-2</v>
+      </c>
+      <c r="AH21" s="161"/>
     </row>
     <row r="22" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="58" t="s">
@@ -3891,43 +3896,43 @@
       </c>
       <c r="C22" s="61" t="str">
         <f>_xll.qlIMMNextCode(C21,B22,Trigger)</f>
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="D22" s="126"/>
       <c r="E22" s="126"/>
       <c r="F22" s="126"/>
       <c r="G22" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H22" s="120" t="str">
-        <f t="shared" si="5"/>
-        <v>USDFUT3MU6_Quote</v>
+        <f t="shared" si="8"/>
+        <v>USDFUT3MZ6_Quote</v>
       </c>
       <c r="I22" s="120" t="str">
-        <f t="shared" si="6"/>
-        <v>USDFUT3MU6ConvAdj_Quote</v>
+        <f t="shared" si="9"/>
+        <v>USDFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="J22" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H22,$H$12,C22,G22,I22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00459#0017</v>
+        <v>obj_0033c#0001</v>
       </c>
       <c r="K22" s="48"/>
       <c r="L22" s="9" t="str">
-        <f>A24</f>
+        <f t="shared" si="5"/>
         <v>FUT</v>
       </c>
       <c r="M22" s="95" t="str">
-        <f>IF(ISBLANK(J24),"--",J24)</f>
-        <v>obj_0045b#0017</v>
+        <f t="shared" si="6"/>
+        <v>obj_0033e#0001</v>
       </c>
       <c r="N22" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M22,Trigger),"--")</f>
-        <v>USDFUT3MH7_Quote</v>
+        <v>USDFUT3MM7_Quote</v>
       </c>
       <c r="O22" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M22,Trigger),"--")</f>
-        <v>98.372500000000002</v>
+        <v>98.5625</v>
       </c>
       <c r="P22" s="98" t="b">
         <v>1</v>
@@ -3940,26 +3945,26 @@
       </c>
       <c r="S22" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M22,Trigger),"--")</f>
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="T22" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M22,Trigger),"--")</f>
-        <v>42901</v>
+        <v>42999</v>
       </c>
       <c r="V22" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X22,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W22" s="3" t="str">
-        <v>obj_003fd</v>
+        <v>obj_0032d</v>
       </c>
       <c r="X22" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W22,Trigger),"")</f>
-        <v>USDAM3L8Y_Quote</v>
+        <v>USDAM3L9Y_Quote</v>
       </c>
       <c r="Y22" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W22,Trigger),"")</f>
-        <v>2.2959999999999998E-2</v>
+        <v>2.121E-2</v>
       </c>
       <c r="Z22" s="105">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W22)),_xll.qlSwapRateHelperSpread($W22))</f>
@@ -3967,16 +3972,16 @@
       </c>
       <c r="AA22" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W22,Trigger),"")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="AB22" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W22,Trigger),"")</f>
-        <v>45106</v>
+        <v>45545</v>
       </c>
       <c r="AC22" s="68">
-        <v>2.3454771919851226E-2</v>
-      </c>
-      <c r="AH22" s="163"/>
+        <v>2.1698763087005649E-2</v>
+      </c>
+      <c r="AH22" s="161"/>
     </row>
     <row r="23" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58" t="s">
@@ -3987,43 +3992,43 @@
       </c>
       <c r="C23" s="61" t="str">
         <f>_xll.qlIMMNextCode(C22,B23,Trigger)</f>
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="D23" s="126"/>
       <c r="E23" s="126"/>
       <c r="F23" s="126"/>
       <c r="G23" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H23" s="120" t="str">
-        <f t="shared" si="5"/>
-        <v>USDFUT3MZ6_Quote</v>
+        <f t="shared" si="8"/>
+        <v>USDFUT3MH7_Quote</v>
       </c>
       <c r="I23" s="120" t="str">
-        <f t="shared" si="6"/>
-        <v>USDFUT3MZ6ConvAdj_Quote</v>
+        <f t="shared" si="9"/>
+        <v>USDFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="J23" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H23,$H$12,C23,G23,I23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0045a#0017</v>
+        <v>obj_0033d#0001</v>
       </c>
       <c r="K23" s="48"/>
       <c r="L23" s="9" t="str">
-        <f>A25</f>
+        <f t="shared" si="5"/>
         <v>FUT</v>
       </c>
       <c r="M23" s="95" t="str">
-        <f>IF(ISBLANK(J25),"--",J25)</f>
-        <v>obj_0045d#0017</v>
+        <f t="shared" si="6"/>
+        <v>obj_0033f#0001</v>
       </c>
       <c r="N23" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M23,Trigger),"--")</f>
-        <v>USDFUT3MM7_Quote</v>
+        <v>USDFUT3MU7_Quote</v>
       </c>
       <c r="O23" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M23,Trigger),"--")</f>
-        <v>98.182500000000005</v>
+        <v>98.427500000000009</v>
       </c>
       <c r="P23" s="98" t="b">
         <v>1</v>
@@ -4036,26 +4041,26 @@
       </c>
       <c r="S23" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M23,Trigger),"--")</f>
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="T23" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M23,Trigger),"--")</f>
-        <v>42999</v>
+        <v>43089</v>
       </c>
       <c r="V23" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X23,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W23" s="3" t="str">
-        <v>obj_0042c</v>
+        <v>obj_00330</v>
       </c>
       <c r="X23" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W23,Trigger),"")</f>
-        <v>USDAM3L9Y_Quote</v>
+        <v>USDAM3L10Y_Quote</v>
       </c>
       <c r="Y23" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W23,Trigger),"")</f>
-        <v>2.3980000000000001E-2</v>
+        <v>2.2040000000000001E-2</v>
       </c>
       <c r="Z23" s="105">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W23)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W23)),_xll.qlSwapRateHelperSpread($W23))</f>
@@ -4063,16 +4068,16 @@
       </c>
       <c r="AA23" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W23,Trigger),"")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="AB23" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W23,Trigger),"")</f>
-        <v>45471</v>
+        <v>45910</v>
       </c>
       <c r="AC23" s="68">
-        <v>2.4541471491046633E-2</v>
-      </c>
-      <c r="AH23" s="163"/>
+        <v>2.2586669113882674E-2</v>
+      </c>
+      <c r="AH23" s="161"/>
     </row>
     <row r="24" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="58" t="s">
@@ -4083,43 +4088,43 @@
       </c>
       <c r="C24" s="61" t="str">
         <f>_xll.qlIMMNextCode(C23,B24,Trigger)</f>
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="D24" s="126"/>
       <c r="E24" s="126"/>
       <c r="F24" s="126"/>
       <c r="G24" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H24" s="120" t="str">
-        <f t="shared" si="5"/>
-        <v>USDFUT3MH7_Quote</v>
+        <f t="shared" si="8"/>
+        <v>USDFUT3MM7_Quote</v>
       </c>
       <c r="I24" s="120" t="str">
-        <f t="shared" si="6"/>
-        <v>USDFUT3MH7ConvAdj_Quote</v>
+        <f t="shared" si="9"/>
+        <v>USDFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="J24" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H24,$H$12,C24,G24,I24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0045b#0017</v>
+        <v>obj_0033e#0001</v>
       </c>
       <c r="K24" s="48"/>
       <c r="L24" s="9" t="str">
-        <f>A26</f>
+        <f t="shared" si="5"/>
         <v>FUT</v>
       </c>
       <c r="M24" s="95" t="str">
-        <f>IF(ISBLANK(J26),"--",J26)</f>
-        <v>obj_00460#0017</v>
+        <f t="shared" si="6"/>
+        <v>obj_00340#0001</v>
       </c>
       <c r="N24" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M24,Trigger),"--")</f>
-        <v>USDFUT3MU7_Quote</v>
+        <v>USDFUT3MZ7_Quote</v>
       </c>
       <c r="O24" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M24,Trigger),"--")</f>
-        <v>98.017499999999998</v>
+        <v>98.287499999999994</v>
       </c>
       <c r="P24" s="98" t="b">
         <v>1</v>
@@ -4132,26 +4137,26 @@
       </c>
       <c r="S24" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M24,Trigger),"--")</f>
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="T24" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M24,Trigger),"--")</f>
-        <v>43089</v>
+        <v>43179</v>
       </c>
       <c r="V24" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X24,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W24" s="3" t="str">
-        <v>obj_00417</v>
+        <v>obj_00327</v>
       </c>
       <c r="X24" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W24,Trigger),"")</f>
-        <v>USDAM3L10Y_Quote</v>
+        <v>USDAM3L12Y_Quote</v>
       </c>
       <c r="Y24" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W24,Trigger),"")</f>
-        <v>2.4830000000000001E-2</v>
+        <v>2.3359999999999999E-2</v>
       </c>
       <c r="Z24" s="105">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W24)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W24)),_xll.qlSwapRateHelperSpread($W24))</f>
@@ -4159,16 +4164,16 @@
       </c>
       <c r="AA24" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W24,Trigger),"")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="AB24" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W24,Trigger),"")</f>
-        <v>45838</v>
+        <v>46640</v>
       </c>
       <c r="AC24" s="68">
-        <v>2.5453286090905292E-2</v>
-      </c>
-      <c r="AH24" s="163"/>
+        <v>2.4014841599207099E-2</v>
+      </c>
+      <c r="AH24" s="161"/>
     </row>
     <row r="25" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="58" t="s">
@@ -4179,43 +4184,43 @@
       </c>
       <c r="C25" s="61" t="str">
         <f>_xll.qlIMMNextCode(C24,B25,Trigger)</f>
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="D25" s="126"/>
       <c r="E25" s="126"/>
       <c r="F25" s="126"/>
       <c r="G25" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H25" s="120" t="str">
-        <f t="shared" si="5"/>
-        <v>USDFUT3MM7_Quote</v>
+        <f t="shared" si="8"/>
+        <v>USDFUT3MU7_Quote</v>
       </c>
       <c r="I25" s="120" t="str">
-        <f t="shared" si="6"/>
-        <v>USDFUT3MM7ConvAdj_Quote</v>
+        <f t="shared" si="9"/>
+        <v>USDFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="J25" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H25,$H$12,C25,G25,I25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0045d#0017</v>
+        <v>obj_0033f#0001</v>
       </c>
       <c r="K25" s="48"/>
       <c r="L25" s="9" t="str">
-        <f>A27</f>
+        <f t="shared" si="5"/>
         <v>FUT</v>
       </c>
       <c r="M25" s="95" t="str">
-        <f>IF(ISBLANK(J27),"--",J27)</f>
-        <v>obj_00461#0016</v>
+        <f t="shared" si="6"/>
+        <v>obj_00341#0001</v>
       </c>
       <c r="N25" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M25,Trigger),"--")</f>
-        <v>USDFUT3MZ7_Quote</v>
+        <v>USDFUT3MH8_Quote</v>
       </c>
       <c r="O25" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M25,Trigger),"--")</f>
-        <v>97.862499999999997</v>
+        <v>98.172499999999999</v>
       </c>
       <c r="P25" s="98" t="b">
         <v>1</v>
@@ -4228,26 +4233,26 @@
       </c>
       <c r="S25" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M25,Trigger),"--")</f>
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="T25" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M25,Trigger),"--")</f>
-        <v>43179</v>
+        <v>43272</v>
       </c>
       <c r="V25" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X25,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W25" s="3" t="str">
-        <v>obj_00413</v>
+        <v>obj_00324</v>
       </c>
       <c r="X25" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W25,Trigger),"")</f>
-        <v>USDAM3L12Y_Quote</v>
+        <v>USDAM3L15Y_Quote</v>
       </c>
       <c r="Y25" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W25,Trigger),"")</f>
-        <v>2.6120000000000001E-2</v>
+        <v>2.4680000000000001E-2</v>
       </c>
       <c r="Z25" s="105">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W25)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W25)),_xll.qlSwapRateHelperSpread($W25))</f>
@@ -4255,16 +4260,16 @@
       </c>
       <c r="AA25" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W25,Trigger),"")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="AB25" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W25,Trigger),"")</f>
-        <v>46567</v>
+        <v>47736</v>
       </c>
       <c r="AC25" s="68">
-        <v>2.6850721939288277E-2</v>
-      </c>
-      <c r="AH25" s="163"/>
+        <v>2.5460255809551698E-2</v>
+      </c>
+      <c r="AH25" s="161"/>
     </row>
     <row r="26" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="58" t="s">
@@ -4275,43 +4280,43 @@
       </c>
       <c r="C26" s="61" t="str">
         <f>_xll.qlIMMNextCode(C25,B26,Trigger)</f>
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="D26" s="126"/>
       <c r="E26" s="126"/>
       <c r="F26" s="126"/>
       <c r="G26" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H26" s="120" t="str">
-        <f t="shared" si="5"/>
-        <v>USDFUT3MU7_Quote</v>
+        <f t="shared" si="8"/>
+        <v>USDFUT3MZ7_Quote</v>
       </c>
       <c r="I26" s="120" t="str">
-        <f t="shared" si="6"/>
-        <v>USDFUT3MU7ConvAdj_Quote</v>
+        <f t="shared" si="9"/>
+        <v>USDFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="J26" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H26,$H$12,C26,G26,I26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00460#0017</v>
+        <v>obj_00340#0001</v>
       </c>
       <c r="K26" s="48"/>
       <c r="L26" s="9" t="str">
-        <f>A28</f>
+        <f t="shared" si="5"/>
         <v>FUT</v>
       </c>
       <c r="M26" s="95" t="str">
-        <f>IF(ISBLANK(J28),"--",J28)</f>
-        <v>obj_00462#0015</v>
+        <f t="shared" si="6"/>
+        <v>obj_00342#0001</v>
       </c>
       <c r="N26" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M26,Trigger),"--")</f>
-        <v>USDFUT3MH8_Quote</v>
+        <v>USDFUT3MM8_Quote</v>
       </c>
       <c r="O26" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M26,Trigger),"--")</f>
-        <v>97.732500000000002</v>
+        <v>98.057500000000005</v>
       </c>
       <c r="P26" s="98" t="b">
         <v>1</v>
@@ -4324,26 +4329,26 @@
       </c>
       <c r="S26" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M26,Trigger),"--")</f>
-        <v>43180</v>
+        <v>43271</v>
       </c>
       <c r="T26" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M26,Trigger),"--")</f>
-        <v>43272</v>
+        <v>43363</v>
       </c>
       <c r="V26" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X26,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W26" s="3" t="str">
-        <v>obj_003ea</v>
+        <v>obj_00332</v>
       </c>
       <c r="X26" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W26,Trigger),"")</f>
-        <v>USDAM3L15Y_Quote</v>
+        <v>USDAM3L20Y_Quote</v>
       </c>
       <c r="Y26" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W26,Trigger),"")</f>
-        <v>2.7370000000000002E-2</v>
+        <v>2.588E-2</v>
       </c>
       <c r="Z26" s="105">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W26)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W26)),_xll.qlSwapRateHelperSpread($W26))</f>
@@ -4351,16 +4356,16 @@
       </c>
       <c r="AA26" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W26,Trigger),"")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="AB26" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W26,Trigger),"")</f>
-        <v>47662</v>
+        <v>49562</v>
       </c>
       <c r="AC26" s="68">
-        <v>2.8216738776293066E-2</v>
-      </c>
-      <c r="AH26" s="163"/>
+        <v>2.6781862613277998E-2</v>
+      </c>
+      <c r="AH26" s="161"/>
     </row>
     <row r="27" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="58" t="s">
@@ -4371,43 +4376,43 @@
       </c>
       <c r="C27" s="61" t="str">
         <f>_xll.qlIMMNextCode(C26,B27,Trigger)</f>
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="D27" s="126"/>
       <c r="E27" s="126"/>
       <c r="F27" s="126"/>
       <c r="G27" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H27" s="120" t="str">
-        <f t="shared" si="5"/>
-        <v>USDFUT3MZ7_Quote</v>
+        <f t="shared" si="8"/>
+        <v>USDFUT3MH8_Quote</v>
       </c>
       <c r="I27" s="120" t="str">
-        <f t="shared" si="6"/>
-        <v>USDFUT3MZ7ConvAdj_Quote</v>
+        <f t="shared" si="9"/>
+        <v>USDFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="J27" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H27,$H$12,C27,G27,I27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00461#0016</v>
+        <v>obj_00341#0001</v>
       </c>
       <c r="K27" s="48"/>
       <c r="L27" s="9" t="str">
-        <f>A29</f>
+        <f t="shared" si="5"/>
         <v>FUT</v>
       </c>
       <c r="M27" s="95" t="str">
-        <f>IF(ISBLANK(J29),"--",J29)</f>
-        <v>obj_00463#0015</v>
+        <f t="shared" si="6"/>
+        <v>obj_00343#0001</v>
       </c>
       <c r="N27" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M27,Trigger),"--")</f>
-        <v>USDFUT3MM8_Quote</v>
+        <v>USDFUT3MU8_Quote</v>
       </c>
       <c r="O27" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M27,Trigger),"--")</f>
-        <v>97.61</v>
+        <v>97.952500000000001</v>
       </c>
       <c r="P27" s="98" t="b">
         <v>1</v>
@@ -4420,26 +4425,26 @@
       </c>
       <c r="S27" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M27,Trigger),"--")</f>
-        <v>43271</v>
+        <v>43362</v>
       </c>
       <c r="T27" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M27,Trigger),"--")</f>
-        <v>43363</v>
+        <v>43453</v>
       </c>
       <c r="V27" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X27,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W27" s="3" t="str">
-        <v>obj_0041d</v>
+        <v>obj_0032e</v>
       </c>
       <c r="X27" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W27,Trigger),"")</f>
-        <v>USDAM3L20Y_Quote</v>
+        <v>USDAM3L25Y_Quote</v>
       </c>
       <c r="Y27" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W27,Trigger),"")</f>
-        <v>2.8510000000000001E-2</v>
+        <v>2.6469999999999997E-2</v>
       </c>
       <c r="Z27" s="105">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W27)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W27)),_xll.qlSwapRateHelperSpread($W27))</f>
@@ -4447,16 +4452,16 @@
       </c>
       <c r="AA27" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W27,Trigger),"")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="AB27" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W27,Trigger),"")</f>
-        <v>49489</v>
+        <v>51389</v>
       </c>
       <c r="AC27" s="68">
-        <v>2.946817859128972E-2</v>
-      </c>
-      <c r="AH27" s="163"/>
+        <v>2.7411615288364333E-2</v>
+      </c>
+      <c r="AH27" s="161"/>
     </row>
     <row r="28" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="58" t="s">
@@ -4467,43 +4472,43 @@
       </c>
       <c r="C28" s="61" t="str">
         <f>_xll.qlIMMNextCode(C27,B28,Trigger)</f>
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="D28" s="126"/>
       <c r="E28" s="126"/>
       <c r="F28" s="126"/>
       <c r="G28" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H28" s="120" t="str">
-        <f t="shared" si="5"/>
-        <v>USDFUT3MH8_Quote</v>
+        <f t="shared" si="8"/>
+        <v>USDFUT3MM8_Quote</v>
       </c>
       <c r="I28" s="120" t="str">
-        <f t="shared" si="6"/>
-        <v>USDFUT3MH8ConvAdj_Quote</v>
+        <f t="shared" si="9"/>
+        <v>USDFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="J28" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H28,$H$12,C28,G28,I28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00462#0015</v>
+        <v>obj_00342#0001</v>
       </c>
       <c r="K28" s="48"/>
       <c r="L28" s="9" t="str">
-        <f>A30</f>
+        <f t="shared" si="5"/>
         <v>FUT</v>
       </c>
       <c r="M28" s="95" t="str">
-        <f>IF(ISBLANK(J30),"--",J30)</f>
-        <v>obj_00464#0015</v>
+        <f t="shared" si="6"/>
+        <v>obj_00344#0001</v>
       </c>
       <c r="N28" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M28,Trigger),"--")</f>
-        <v>USDFUT3MU8_Quote</v>
+        <v>USDFUT3MZ8_Quote</v>
       </c>
       <c r="O28" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M28,Trigger),"--")</f>
-        <v>97.492500000000007</v>
+        <v>97.847499999999997</v>
       </c>
       <c r="P28" s="98" t="b">
         <v>1</v>
@@ -4516,26 +4521,26 @@
       </c>
       <c r="S28" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M28,Trigger),"--")</f>
-        <v>43362</v>
+        <v>43453</v>
       </c>
       <c r="T28" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M28,Trigger),"--")</f>
-        <v>43453</v>
+        <v>43543</v>
       </c>
       <c r="V28" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X28,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W28" s="3" t="str">
-        <v>obj_00418</v>
+        <v>obj_0032f</v>
       </c>
       <c r="X28" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W28,Trigger),"")</f>
-        <v>USDAM3L25Y_Quote</v>
+        <v>USDAM3L30Y_Quote</v>
       </c>
       <c r="Y28" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W28,Trigger),"")</f>
-        <v>2.9049999999999999E-2</v>
+        <v>2.6830000000000003E-2</v>
       </c>
       <c r="Z28" s="105">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W28)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W28)),_xll.qlSwapRateHelperSpread($W28))</f>
@@ -4543,16 +4548,16 @@
       </c>
       <c r="AA28" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W28,Trigger),"")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="AB28" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W28,Trigger),"")</f>
-        <v>51316</v>
+        <v>53216</v>
       </c>
       <c r="AC28" s="68">
-        <v>3.003218166201509E-2</v>
-      </c>
-      <c r="AH28" s="163"/>
+        <v>2.7791519255449992E-2</v>
+      </c>
+      <c r="AH28" s="161"/>
     </row>
     <row r="29" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="58" t="s">
@@ -4563,43 +4568,43 @@
       </c>
       <c r="C29" s="61" t="str">
         <f>_xll.qlIMMNextCode(C28,B29,Trigger)</f>
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="D29" s="126"/>
       <c r="E29" s="126"/>
       <c r="F29" s="126"/>
       <c r="G29" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H29" s="120" t="str">
-        <f t="shared" si="5"/>
-        <v>USDFUT3MM8_Quote</v>
+        <f t="shared" si="8"/>
+        <v>USDFUT3MU8_Quote</v>
       </c>
       <c r="I29" s="120" t="str">
-        <f t="shared" si="6"/>
-        <v>USDFUT3MM8ConvAdj_Quote</v>
+        <f t="shared" si="9"/>
+        <v>USDFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="J29" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H29,$H$12,C29,G29,I29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00463#0015</v>
+        <v>obj_00343#0001</v>
       </c>
       <c r="K29" s="48"/>
       <c r="L29" s="9" t="str">
-        <f>A31</f>
+        <f t="shared" si="5"/>
         <v>FUT</v>
       </c>
       <c r="M29" s="95" t="str">
-        <f>IF(ISBLANK(J31),"--",J31)</f>
-        <v>obj_00465#0015</v>
+        <f t="shared" si="6"/>
+        <v>obj_00345#0001</v>
       </c>
       <c r="N29" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M29,Trigger),"--")</f>
-        <v>USDFUT3MZ8_Quote</v>
+        <v>USDFUT3MH9_Quote</v>
       </c>
       <c r="O29" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M29,Trigger),"--")</f>
-        <v>97.377499999999998</v>
+        <v>97.759999999999991</v>
       </c>
       <c r="P29" s="98" t="b">
         <v>1</v>
@@ -4612,43 +4617,43 @@
       </c>
       <c r="S29" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M29,Trigger),"--")</f>
-        <v>43453</v>
+        <v>43544</v>
       </c>
       <c r="T29" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M29,Trigger),"--")</f>
-        <v>43543</v>
+        <v>43636</v>
       </c>
       <c r="V29" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X29,$N$3:$N$71,0),1),"")</f>
-        <v>Sw</v>
-      </c>
-      <c r="W29" s="3" t="str">
-        <v>obj_003e6</v>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W29" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="X29" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W29,Trigger),"")</f>
-        <v>USDAM3L30Y_Quote</v>
-      </c>
-      <c r="Y29" s="68">
+        <v/>
+      </c>
+      <c r="Y29" s="68" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W29,Trigger),"")</f>
-        <v>2.9360000000000001E-2</v>
-      </c>
-      <c r="Z29" s="105">
+        <v/>
+      </c>
+      <c r="Z29" s="105" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W29)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W29)),_xll.qlSwapRateHelperSpread($W29))</f>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="4">
+        <v/>
+      </c>
+      <c r="AA29" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W29,Trigger),"")</f>
-        <v>42184</v>
-      </c>
-      <c r="AB29" s="4">
+        <v/>
+      </c>
+      <c r="AB29" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W29,Trigger),"")</f>
-        <v>53142</v>
-      </c>
-      <c r="AC29" s="68">
-        <v>3.0341440968075624E-2</v>
-      </c>
-      <c r="AH29" s="163"/>
+        <v/>
+      </c>
+      <c r="AC29" s="68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH29" s="161"/>
     </row>
     <row r="30" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="58" t="s">
@@ -4659,43 +4664,43 @@
       </c>
       <c r="C30" s="61" t="str">
         <f>_xll.qlIMMNextCode(C29,B30,Trigger)</f>
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="D30" s="126"/>
       <c r="E30" s="126"/>
       <c r="F30" s="126"/>
       <c r="G30" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H30" s="120" t="str">
-        <f t="shared" si="5"/>
-        <v>USDFUT3MU8_Quote</v>
+        <f t="shared" si="8"/>
+        <v>USDFUT3MZ8_Quote</v>
       </c>
       <c r="I30" s="120" t="str">
-        <f t="shared" si="6"/>
-        <v>USDFUT3MU8ConvAdj_Quote</v>
+        <f t="shared" si="9"/>
+        <v>USDFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="J30" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H30,$H$12,C30,G30,I30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00464#0015</v>
+        <v>obj_00344#0001</v>
       </c>
       <c r="K30" s="48"/>
       <c r="L30" s="9" t="str">
-        <f>A32</f>
+        <f t="shared" si="5"/>
         <v>FUT</v>
       </c>
       <c r="M30" s="95" t="str">
-        <f>IF(ISBLANK(J32),"--",J32)</f>
-        <v>obj_00466#0015</v>
+        <f t="shared" si="6"/>
+        <v>obj_00346#0001</v>
       </c>
       <c r="N30" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M30,Trigger),"--")</f>
-        <v>USDFUT3MH9_Quote</v>
+        <v>USDFUT3MM9_Quote</v>
       </c>
       <c r="O30" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M30,Trigger),"--")</f>
-        <v>97.282499999999999</v>
+        <v>97.667500000000004</v>
       </c>
       <c r="P30" s="98" t="b">
         <v>1</v>
@@ -4708,43 +4713,43 @@
       </c>
       <c r="S30" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M30,Trigger),"--")</f>
-        <v>43544</v>
+        <v>43635</v>
       </c>
       <c r="T30" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M30,Trigger),"--")</f>
-        <v>43636</v>
+        <v>43727</v>
       </c>
       <c r="V30" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X30,$N$3:$N$71,0),1),"")</f>
-        <v>Sw</v>
-      </c>
-      <c r="W30" s="3" t="str">
-        <v>obj_003ff</v>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W30" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="X30" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W30,Trigger),"")</f>
-        <v>USDAM3L40Y_Quote</v>
-      </c>
-      <c r="Y30" s="68">
+        <v/>
+      </c>
+      <c r="Y30" s="68" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W30,Trigger),"")</f>
-        <v>2.954E-2</v>
-      </c>
-      <c r="Z30" s="105">
+        <v/>
+      </c>
+      <c r="Z30" s="105" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W30)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W30)),_xll.qlSwapRateHelperSpread($W30))</f>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="4">
+        <v/>
+      </c>
+      <c r="AA30" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W30,Trigger),"")</f>
-        <v>42184</v>
-      </c>
-      <c r="AB30" s="4">
+        <v/>
+      </c>
+      <c r="AB30" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W30,Trigger),"")</f>
-        <v>56794</v>
-      </c>
-      <c r="AC30" s="68">
-        <v>3.0394852587946438E-2</v>
-      </c>
-      <c r="AH30" s="163"/>
+        <v/>
+      </c>
+      <c r="AC30" s="68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH30" s="161"/>
     </row>
     <row r="31" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="58" t="s">
@@ -4755,43 +4760,43 @@
       </c>
       <c r="C31" s="61" t="str">
         <f>_xll.qlIMMNextCode(C30,B31,Trigger)</f>
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="D31" s="126"/>
       <c r="E31" s="126"/>
       <c r="F31" s="126"/>
       <c r="G31" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H31" s="120" t="str">
-        <f t="shared" si="5"/>
-        <v>USDFUT3MZ8_Quote</v>
+        <f t="shared" si="8"/>
+        <v>USDFUT3MH9_Quote</v>
       </c>
       <c r="I31" s="120" t="str">
-        <f t="shared" si="6"/>
-        <v>USDFUT3MZ8ConvAdj_Quote</v>
+        <f t="shared" si="9"/>
+        <v>USDFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="J31" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H31,$H$12,C31,G31,I31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00465#0015</v>
+        <v>obj_00345#0001</v>
       </c>
       <c r="K31" s="48"/>
       <c r="L31" s="9" t="str">
-        <f>A33</f>
+        <f t="shared" si="5"/>
         <v>FUT</v>
       </c>
       <c r="M31" s="95" t="str">
-        <f>IF(ISBLANK(J33),"--",J33)</f>
-        <v>obj_00467#0015</v>
+        <f t="shared" si="6"/>
+        <v>obj_00347#0001</v>
       </c>
       <c r="N31" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M31,Trigger),"--")</f>
-        <v>USDFUT3MM9_Quote</v>
+        <v>USDFUT3MU9_Quote</v>
       </c>
       <c r="O31" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M31,Trigger),"--")</f>
-        <v>97.1875</v>
+        <v>97.582499999999996</v>
       </c>
       <c r="P31" s="98" t="b">
         <v>1</v>
@@ -4804,43 +4809,43 @@
       </c>
       <c r="S31" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M31,Trigger),"--")</f>
-        <v>43635</v>
+        <v>43726</v>
       </c>
       <c r="T31" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M31,Trigger),"--")</f>
-        <v>43727</v>
+        <v>43817</v>
       </c>
       <c r="V31" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X31,$N$3:$N$71,0),1),"")</f>
-        <v>Sw</v>
-      </c>
-      <c r="W31" s="3" t="str">
-        <v>obj_003ee</v>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W31" s="3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="X31" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W31,Trigger),"")</f>
-        <v>USDAM3L50Y_Quote</v>
-      </c>
-      <c r="Y31" s="68">
+        <v/>
+      </c>
+      <c r="Y31" s="68" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W31,Trigger),"")</f>
-        <v>2.9380000000000003E-2</v>
-      </c>
-      <c r="Z31" s="105">
+        <v/>
+      </c>
+      <c r="Z31" s="105" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W31)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W31)),_xll.qlSwapRateHelperSpread($W31))</f>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="4">
+        <v/>
+      </c>
+      <c r="AA31" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W31,Trigger),"")</f>
-        <v>42184</v>
-      </c>
-      <c r="AB31" s="4">
+        <v/>
+      </c>
+      <c r="AB31" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W31,Trigger),"")</f>
-        <v>60447</v>
-      </c>
-      <c r="AC31" s="68">
-        <v>2.9891065999056769E-2</v>
-      </c>
-      <c r="AH31" s="163"/>
+        <v/>
+      </c>
+      <c r="AC31" s="68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH31" s="161"/>
     </row>
     <row r="32" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="58" t="s">
@@ -4851,43 +4856,43 @@
       </c>
       <c r="C32" s="61" t="str">
         <f>_xll.qlIMMNextCode(C31,B32,Trigger)</f>
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="D32" s="126"/>
       <c r="E32" s="126"/>
       <c r="F32" s="126"/>
       <c r="G32" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H32" s="120" t="str">
-        <f t="shared" si="5"/>
-        <v>USDFUT3MH9_Quote</v>
+        <f t="shared" si="8"/>
+        <v>USDFUT3MM9_Quote</v>
       </c>
       <c r="I32" s="120" t="str">
-        <f t="shared" si="6"/>
-        <v>USDFUT3MH9ConvAdj_Quote</v>
+        <f t="shared" si="9"/>
+        <v>USDFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="J32" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H32,$H$12,C32,G32,I32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00466#0015</v>
+        <v>obj_00346#0001</v>
       </c>
       <c r="K32" s="48"/>
       <c r="L32" s="9" t="str">
-        <f>A34</f>
+        <f t="shared" si="5"/>
         <v>FUT</v>
       </c>
       <c r="M32" s="95" t="str">
-        <f>IF(ISBLANK(J34),"--",J34)</f>
-        <v>obj_00468#0015</v>
+        <f t="shared" si="6"/>
+        <v>obj_00348#0001</v>
       </c>
       <c r="N32" s="148" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M32,Trigger),"--")</f>
-        <v>USDFUT3MU9_Quote</v>
+        <v>USDFUT3MZ9_Quote</v>
       </c>
       <c r="O32" s="153">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M32,Trigger),"--")</f>
-        <v>97.102499999999992</v>
+        <v>97.497500000000002</v>
       </c>
       <c r="P32" s="98" t="b">
         <v>1</v>
@@ -4900,14 +4905,14 @@
       </c>
       <c r="S32" s="100">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M32,Trigger),"--")</f>
-        <v>43726</v>
+        <v>43817</v>
       </c>
       <c r="T32" s="100">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M32,Trigger),"--")</f>
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="V32" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X32,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="W32" s="3" t="e">
@@ -4946,43 +4951,43 @@
       </c>
       <c r="C33" s="61" t="str">
         <f>_xll.qlIMMNextCode(C32,B33,Trigger)</f>
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="D33" s="126"/>
       <c r="E33" s="126"/>
       <c r="F33" s="126"/>
       <c r="G33" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H33" s="120" t="str">
-        <f t="shared" si="5"/>
-        <v>USDFUT3MM9_Quote</v>
+        <f t="shared" si="8"/>
+        <v>USDFUT3MU9_Quote</v>
       </c>
       <c r="I33" s="120" t="str">
-        <f t="shared" si="6"/>
-        <v>USDFUT3MM9ConvAdj_Quote</v>
+        <f t="shared" si="9"/>
+        <v>USDFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="J33" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H33,$H$12,C33,G33,I33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00467#0015</v>
+        <v>obj_00347#0001</v>
       </c>
       <c r="K33" s="48"/>
       <c r="L33" s="10" t="str">
-        <f>A35</f>
+        <f t="shared" si="5"/>
         <v>FUT</v>
       </c>
       <c r="M33" s="96" t="str">
-        <f>IF(ISBLANK(J35),"--",J35)</f>
-        <v>obj_00469#0015</v>
+        <f t="shared" si="6"/>
+        <v>obj_00349#0001</v>
       </c>
       <c r="N33" s="149" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M33,Trigger),"--")</f>
-        <v>USDFUT3MZ9_Quote</v>
+        <v>USDFUT3MH0_Quote</v>
       </c>
       <c r="O33" s="154">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M33,Trigger),"--")</f>
-        <v>97.012500000000003</v>
+        <v>97.417500000000004</v>
       </c>
       <c r="P33" s="101" t="b">
         <v>1</v>
@@ -4995,14 +5000,14 @@
       </c>
       <c r="S33" s="103">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M33,Trigger),"--")</f>
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="T33" s="103">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M33,Trigger),"--")</f>
-        <v>43908</v>
+        <v>44000</v>
       </c>
       <c r="V33" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X33,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="W33" s="3" t="e">
@@ -5041,34 +5046,34 @@
       </c>
       <c r="C34" s="61" t="str">
         <f>_xll.qlIMMNextCode(C33,B34,Trigger)</f>
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="D34" s="126"/>
       <c r="E34" s="126"/>
       <c r="F34" s="126"/>
       <c r="G34" s="60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H34" s="120" t="str">
-        <f t="shared" si="5"/>
-        <v>USDFUT3MU9_Quote</v>
+        <f t="shared" si="8"/>
+        <v>USDFUT3MZ9_Quote</v>
       </c>
       <c r="I34" s="120" t="str">
-        <f t="shared" si="6"/>
-        <v>USDFUT3MU9ConvAdj_Quote</v>
+        <f t="shared" si="9"/>
+        <v>USDFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="J34" s="62" t="str">
         <f>_xll.qlFuturesRateHelper(,H34,$H$12,C34,G34,I34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00468#0015</v>
+        <v>obj_00348#0001</v>
       </c>
       <c r="K34" s="48"/>
       <c r="L34" s="137" t="str">
-        <f>A38</f>
+        <f t="shared" ref="L34:L71" si="10">A38</f>
         <v>Sw</v>
       </c>
       <c r="M34" s="138" t="str">
-        <f>IF(ISBLANK(J38),"--",J38)</f>
+        <f t="shared" ref="M34:M71" si="11">IF(ISBLANK(J38),"--",J38)</f>
         <v>--</v>
       </c>
       <c r="N34" s="150" t="str">
@@ -5097,7 +5102,7 @@
         <v>--</v>
       </c>
       <c r="V34" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X34,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="W34" s="3" t="e">
@@ -5136,34 +5141,34 @@
       </c>
       <c r="C35" s="8" t="str">
         <f>_xll.qlIMMNextCode(C34,B35,Trigger)</f>
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="D35" s="127"/>
       <c r="E35" s="127"/>
       <c r="F35" s="127"/>
       <c r="G35" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H35" s="121" t="str">
-        <f t="shared" si="5"/>
-        <v>USDFUT3MZ9_Quote</v>
+        <f t="shared" si="8"/>
+        <v>USDFUT3MH0_Quote</v>
       </c>
       <c r="I35" s="121" t="str">
-        <f t="shared" si="6"/>
-        <v>USDFUT3MZ9ConvAdj_Quote</v>
+        <f t="shared" si="9"/>
+        <v>USDFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="J35" s="2" t="str">
         <f>_xll.qlFuturesRateHelper(,H35,$H$12,C35,G35,I35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00469#0015</v>
+        <v>obj_00349#0001</v>
       </c>
       <c r="K35" s="48"/>
       <c r="L35" s="69" t="str">
-        <f>A39</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M35" s="142" t="str">
-        <f>IF(ISBLANK(J39),"--",J39)</f>
+        <f t="shared" si="11"/>
         <v>--</v>
       </c>
       <c r="N35" s="151" t="str">
@@ -5192,7 +5197,7 @@
         <v>--</v>
       </c>
       <c r="V35" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X35,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" ref="V35:V71" si="12">IFERROR(INDEX($L$3:$L$71,MATCH(X35,$N$3:$N$71,0),1),"")</f>
         <v/>
       </c>
       <c r="W35" s="3" t="e">
@@ -5231,11 +5236,11 @@
       </c>
       <c r="K36" s="48"/>
       <c r="L36" s="69" t="str">
-        <f>A40</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M36" s="142" t="str">
-        <f>IF(ISBLANK(J40),"--",J40)</f>
+        <f t="shared" si="11"/>
         <v>--</v>
       </c>
       <c r="N36" s="151" t="str">
@@ -5264,7 +5269,7 @@
         <v>--</v>
       </c>
       <c r="V36" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X36,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W36" s="3" t="e">
@@ -5327,11 +5332,11 @@
       </c>
       <c r="K37" s="48"/>
       <c r="L37" s="69" t="str">
-        <f>A41</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M37" s="142" t="str">
-        <f>IF(ISBLANK(J41),"--",J41)</f>
+        <f t="shared" si="11"/>
         <v>--</v>
       </c>
       <c r="N37" s="151" t="str">
@@ -5360,7 +5365,7 @@
         <v>--</v>
       </c>
       <c r="V37" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X37,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W37" s="3" t="e">
@@ -5410,11 +5415,11 @@
         <v>28</v>
       </c>
       <c r="G38" s="60" t="str">
-        <f t="shared" ref="G38:G75" si="7">PROPER(Currency)&amp;FamilyName&amp;$G$1</f>
+        <f t="shared" ref="G38:G75" si="13">PROPER(Currency)&amp;FamilyName&amp;$G$1</f>
         <v>UsdLibor3M</v>
       </c>
       <c r="H38" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B38&amp;"_Quote"</f>
+        <f t="shared" ref="H38:H75" si="14">Currency&amp;$G$36&amp;$H$36&amp;$B38&amp;"_Quote"</f>
         <v>USDAM3L1Y_Quote</v>
       </c>
       <c r="I38" s="129">
@@ -5423,12 +5428,12 @@
       <c r="J38" s="57"/>
       <c r="K38" s="48"/>
       <c r="L38" s="69" t="str">
-        <f>A42</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M38" s="142" t="str">
-        <f>IF(ISBLANK(J42),"--",J42)</f>
-        <v>obj_00486#0010</v>
+        <f t="shared" si="11"/>
+        <v>obj_00319#0001</v>
       </c>
       <c r="N38" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M38,Trigger),"--")</f>
@@ -5436,7 +5441,7 @@
       </c>
       <c r="O38" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M38,Trigger),"--")</f>
-        <v>9.130000000000001E-3</v>
+        <v>8.5599999999999999E-3</v>
       </c>
       <c r="P38" s="143" t="b">
         <v>1</v>
@@ -5449,14 +5454,14 @@
       </c>
       <c r="S38" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M38,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T38" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M38,Trigger),"--")</f>
-        <v>42915</v>
+        <v>42989</v>
       </c>
       <c r="V38" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X38,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W38" s="3" t="e">
@@ -5506,11 +5511,11 @@
         <v>28</v>
       </c>
       <c r="G39" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H39" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B39&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L15M_Quote</v>
       </c>
       <c r="I39" s="130">
@@ -5519,12 +5524,12 @@
       <c r="J39" s="62"/>
       <c r="K39" s="48"/>
       <c r="L39" s="69" t="str">
-        <f>A43</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M39" s="142" t="str">
-        <f>IF(ISBLANK(J43),"--",J43)</f>
-        <v>obj_00406#0019</v>
+        <f t="shared" si="11"/>
+        <v>obj_0032c#0001</v>
       </c>
       <c r="N39" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M39,Trigger),"--")</f>
@@ -5532,7 +5537,7 @@
       </c>
       <c r="O39" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M39,Trigger),"--")</f>
-        <v>1.2749999999999999E-2</v>
+        <v>1.1339999999999999E-2</v>
       </c>
       <c r="P39" s="143" t="b">
         <v>1</v>
@@ -5545,14 +5550,14 @@
       </c>
       <c r="S39" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M39,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T39" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M39,Trigger),"--")</f>
-        <v>43280</v>
+        <v>43353</v>
       </c>
       <c r="V39" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X39,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W39" s="3" t="e">
@@ -5602,11 +5607,11 @@
         <v>28</v>
       </c>
       <c r="G40" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H40" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B40&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L18M_Quote</v>
       </c>
       <c r="I40" s="130">
@@ -5615,12 +5620,12 @@
       <c r="J40" s="62"/>
       <c r="K40" s="48"/>
       <c r="L40" s="69" t="str">
-        <f>A44</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M40" s="142" t="str">
-        <f>IF(ISBLANK(J44),"--",J44)</f>
-        <v>obj_00404#0019</v>
+        <f t="shared" si="11"/>
+        <v>obj_00329#0001</v>
       </c>
       <c r="N40" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M40,Trigger),"--")</f>
@@ -5628,7 +5633,7 @@
       </c>
       <c r="O40" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M40,Trigger),"--")</f>
-        <v>1.5740000000000001E-2</v>
+        <v>1.3729999999999999E-2</v>
       </c>
       <c r="P40" s="143" t="b">
         <v>1</v>
@@ -5641,14 +5646,14 @@
       </c>
       <c r="S40" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M40,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T40" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M40,Trigger),"--")</f>
-        <v>43644</v>
+        <v>43718</v>
       </c>
       <c r="V40" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X40,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W40" s="3" t="e">
@@ -5698,11 +5703,11 @@
         <v>28</v>
       </c>
       <c r="G41" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H41" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B41&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L21M_Quote</v>
       </c>
       <c r="I41" s="130">
@@ -5710,12 +5715,12 @@
       </c>
       <c r="J41" s="62"/>
       <c r="L41" s="69" t="str">
-        <f>A45</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M41" s="142" t="str">
-        <f>IF(ISBLANK(J45),"--",J45)</f>
-        <v>obj_00405#0019</v>
+        <f t="shared" si="11"/>
+        <v>obj_0032b#0001</v>
       </c>
       <c r="N41" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M41,Trigger),"--")</f>
@@ -5723,7 +5728,7 @@
       </c>
       <c r="O41" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M41,Trigger),"--")</f>
-        <v>1.8189999999999998E-2</v>
+        <v>1.5769999999999999E-2</v>
       </c>
       <c r="P41" s="143" t="b">
         <v>1</v>
@@ -5736,14 +5741,14 @@
       </c>
       <c r="S41" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M41,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T41" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M41,Trigger),"--")</f>
-        <v>44011</v>
+        <v>44084</v>
       </c>
       <c r="V41" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X41,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W41" s="3" t="e">
@@ -5793,11 +5798,11 @@
         <v>28</v>
       </c>
       <c r="G42" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H42" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B42&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L2Y_Quote</v>
       </c>
       <c r="I42" s="130">
@@ -5805,15 +5810,15 @@
       </c>
       <c r="J42" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H42,,B42,JoinCalendar,USDSTD!D42,USDSTD!E42,USDSTD!F42,USDSTD!G42,USDSTD!I42,USDSTD!C42,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00486#0010</v>
+        <v>obj_00319#0001</v>
       </c>
       <c r="L42" s="69" t="str">
-        <f>A46</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M42" s="142" t="str">
-        <f>IF(ISBLANK(J46),"--",J46)</f>
-        <v>obj_00409#0019</v>
+        <f t="shared" si="11"/>
+        <v>obj_00331#0001</v>
       </c>
       <c r="N42" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M42,Trigger),"--")</f>
@@ -5821,7 +5826,7 @@
       </c>
       <c r="O42" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M42,Trigger),"--")</f>
-        <v>2.0160000000000001E-2</v>
+        <v>1.7520000000000001E-2</v>
       </c>
       <c r="P42" s="143" t="b">
         <v>1</v>
@@ -5834,14 +5839,14 @@
       </c>
       <c r="S42" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M42,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T42" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M42,Trigger),"--")</f>
-        <v>44376</v>
+        <v>44449</v>
       </c>
       <c r="V42" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X42,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W42" s="3" t="e">
@@ -5891,11 +5896,11 @@
         <v>28</v>
       </c>
       <c r="G43" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H43" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B43&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L3Y_Quote</v>
       </c>
       <c r="I43" s="130">
@@ -5903,15 +5908,15 @@
       </c>
       <c r="J43" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H43,,B43,JoinCalendar,USDSTD!D43,USDSTD!E43,USDSTD!F43,USDSTD!G43,USDSTD!I43,USDSTD!C43,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00406#0019</v>
+        <v>obj_0032c#0001</v>
       </c>
       <c r="L43" s="69" t="str">
-        <f>A47</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M43" s="142" t="str">
-        <f>IF(ISBLANK(J47),"--",J47)</f>
-        <v>obj_00414#0019</v>
+        <f t="shared" si="11"/>
+        <v>obj_0032a#0001</v>
       </c>
       <c r="N43" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M43,Trigger),"--")</f>
@@ -5919,7 +5924,7 @@
       </c>
       <c r="O43" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M43,Trigger),"--")</f>
-        <v>2.1720000000000003E-2</v>
+        <v>1.9020000000000002E-2</v>
       </c>
       <c r="P43" s="143" t="b">
         <v>1</v>
@@ -5932,14 +5937,14 @@
       </c>
       <c r="S43" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M43,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T43" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M43,Trigger),"--")</f>
-        <v>44741</v>
+        <v>44816</v>
       </c>
       <c r="V43" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X43,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W43" s="3" t="e">
@@ -5989,11 +5994,11 @@
         <v>28</v>
       </c>
       <c r="G44" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H44" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B44&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L4Y_Quote</v>
       </c>
       <c r="I44" s="130">
@@ -6001,15 +6006,15 @@
       </c>
       <c r="J44" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H44,,B44,JoinCalendar,USDSTD!D44,USDSTD!E44,USDSTD!F44,USDSTD!G44,USDSTD!I44,USDSTD!C44,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00404#0019</v>
+        <v>obj_00329#0001</v>
       </c>
       <c r="L44" s="69" t="str">
-        <f>A48</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M44" s="142" t="str">
-        <f>IF(ISBLANK(J48),"--",J48)</f>
-        <v>obj_003fd#0019</v>
+        <f t="shared" si="11"/>
+        <v>obj_00325#0001</v>
       </c>
       <c r="N44" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M44,Trigger),"--")</f>
@@ -6017,7 +6022,7 @@
       </c>
       <c r="O44" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M44,Trigger),"--")</f>
-        <v>2.2959999999999998E-2</v>
+        <v>2.0219999999999998E-2</v>
       </c>
       <c r="P44" s="143" t="b">
         <v>1</v>
@@ -6030,14 +6035,14 @@
       </c>
       <c r="S44" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M44,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T44" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M44,Trigger),"--")</f>
-        <v>45106</v>
+        <v>45180</v>
       </c>
       <c r="V44" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X44,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W44" s="3" t="e">
@@ -6087,11 +6092,11 @@
         <v>28</v>
       </c>
       <c r="G45" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H45" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B45&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L5Y_Quote</v>
       </c>
       <c r="I45" s="130">
@@ -6099,15 +6104,15 @@
       </c>
       <c r="J45" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H45,,B45,JoinCalendar,USDSTD!D45,USDSTD!E45,USDSTD!F45,USDSTD!G45,USDSTD!I45,USDSTD!C45,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00405#0019</v>
+        <v>obj_0032b#0001</v>
       </c>
       <c r="L45" s="69" t="str">
-        <f>A49</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M45" s="142" t="str">
-        <f>IF(ISBLANK(J49),"--",J49)</f>
-        <v>obj_0042c#0019</v>
+        <f t="shared" si="11"/>
+        <v>obj_0032d#0001</v>
       </c>
       <c r="N45" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M45,Trigger),"--")</f>
@@ -6115,7 +6120,7 @@
       </c>
       <c r="O45" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M45,Trigger),"--")</f>
-        <v>2.3980000000000001E-2</v>
+        <v>2.1219999999999999E-2</v>
       </c>
       <c r="P45" s="143" t="b">
         <v>1</v>
@@ -6128,14 +6133,14 @@
       </c>
       <c r="S45" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M45,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T45" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M45,Trigger),"--")</f>
-        <v>45471</v>
+        <v>45545</v>
       </c>
       <c r="V45" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X45,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W45" s="3" t="e">
@@ -6185,11 +6190,11 @@
         <v>28</v>
       </c>
       <c r="G46" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H46" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B46&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L6Y_Quote</v>
       </c>
       <c r="I46" s="130">
@@ -6197,15 +6202,15 @@
       </c>
       <c r="J46" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H46,,B46,JoinCalendar,USDSTD!D46,USDSTD!E46,USDSTD!F46,USDSTD!G46,USDSTD!I46,USDSTD!C46,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00409#0019</v>
+        <v>obj_00331#0001</v>
       </c>
       <c r="L46" s="69" t="str">
-        <f>A50</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M46" s="142" t="str">
-        <f>IF(ISBLANK(J50),"--",J50)</f>
-        <v>obj_00417#0019</v>
+        <f t="shared" si="11"/>
+        <v>obj_00330#0001</v>
       </c>
       <c r="N46" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M46,Trigger),"--")</f>
@@ -6213,7 +6218,7 @@
       </c>
       <c r="O46" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M46,Trigger),"--")</f>
-        <v>2.4830000000000001E-2</v>
+        <v>2.205E-2</v>
       </c>
       <c r="P46" s="143" t="b">
         <v>1</v>
@@ -6226,14 +6231,14 @@
       </c>
       <c r="S46" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M46,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T46" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M46,Trigger),"--")</f>
-        <v>45838</v>
+        <v>45910</v>
       </c>
       <c r="V46" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X46,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W46" s="3" t="e">
@@ -6283,11 +6288,11 @@
         <v>28</v>
       </c>
       <c r="G47" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H47" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B47&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L7Y_Quote</v>
       </c>
       <c r="I47" s="130">
@@ -6295,14 +6300,14 @@
       </c>
       <c r="J47" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H47,,B47,JoinCalendar,USDSTD!D47,USDSTD!E47,USDSTD!F47,USDSTD!G47,USDSTD!I47,USDSTD!C47,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00414#0019</v>
+        <v>obj_0032a#0001</v>
       </c>
       <c r="L47" s="69" t="str">
-        <f>A51</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M47" s="143" t="str">
-        <f>IF(ISBLANK(J51),"--",J51)</f>
+        <f t="shared" si="11"/>
         <v>--</v>
       </c>
       <c r="N47" s="151" t="str">
@@ -6331,7 +6336,7 @@
         <v>--</v>
       </c>
       <c r="V47" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X47,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W47" s="3" t="e">
@@ -6381,11 +6386,11 @@
         <v>28</v>
       </c>
       <c r="G48" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H48" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B48&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L8Y_Quote</v>
       </c>
       <c r="I48" s="130">
@@ -6393,15 +6398,15 @@
       </c>
       <c r="J48" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H48,,B48,JoinCalendar,USDSTD!D48,USDSTD!E48,USDSTD!F48,USDSTD!G48,USDSTD!I48,USDSTD!C48,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003fd#0019</v>
+        <v>obj_00325#0001</v>
       </c>
       <c r="L48" s="69" t="str">
-        <f>A52</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M48" s="143" t="str">
-        <f>IF(ISBLANK(J52),"--",J52)</f>
-        <v>obj_00413#0019</v>
+        <f t="shared" si="11"/>
+        <v>obj_00327#0001</v>
       </c>
       <c r="N48" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M48,Trigger),"--")</f>
@@ -6409,7 +6414,7 @@
       </c>
       <c r="O48" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M48,Trigger),"--")</f>
-        <v>2.6120000000000001E-2</v>
+        <v>2.3370000000000002E-2</v>
       </c>
       <c r="P48" s="143" t="b">
         <v>1</v>
@@ -6422,14 +6427,14 @@
       </c>
       <c r="S48" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M48,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T48" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M48,Trigger),"--")</f>
-        <v>46567</v>
+        <v>46640</v>
       </c>
       <c r="V48" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X48,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W48" s="3" t="e">
@@ -6479,11 +6484,11 @@
         <v>28</v>
       </c>
       <c r="G49" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H49" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B49&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L9Y_Quote</v>
       </c>
       <c r="I49" s="130">
@@ -6491,14 +6496,14 @@
       </c>
       <c r="J49" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H49,,B49,JoinCalendar,USDSTD!D49,USDSTD!E49,USDSTD!F49,USDSTD!G49,USDSTD!I49,USDSTD!C49,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0042c#0019</v>
+        <v>obj_0032d#0001</v>
       </c>
       <c r="L49" s="69" t="str">
-        <f>A53</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M49" s="143" t="str">
-        <f>IF(ISBLANK(J53),"--",J53)</f>
+        <f t="shared" si="11"/>
         <v>--</v>
       </c>
       <c r="N49" s="151" t="str">
@@ -6527,7 +6532,7 @@
         <v>--</v>
       </c>
       <c r="V49" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X49,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W49" s="3" t="e">
@@ -6577,11 +6582,11 @@
         <v>28</v>
       </c>
       <c r="G50" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H50" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B50&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L10Y_Quote</v>
       </c>
       <c r="I50" s="130">
@@ -6589,14 +6594,14 @@
       </c>
       <c r="J50" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H50,,B50,JoinCalendar,USDSTD!D50,USDSTD!E50,USDSTD!F50,USDSTD!G50,USDSTD!I50,USDSTD!C50,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00417#0019</v>
+        <v>obj_00330#0001</v>
       </c>
       <c r="L50" s="69" t="str">
-        <f>A54</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M50" s="143" t="str">
-        <f>IF(ISBLANK(J54),"--",J54)</f>
+        <f t="shared" si="11"/>
         <v>--</v>
       </c>
       <c r="N50" s="151" t="str">
@@ -6625,7 +6630,7 @@
         <v>--</v>
       </c>
       <c r="V50" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X50,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W50" s="3" t="e">
@@ -6675,11 +6680,11 @@
         <v>28</v>
       </c>
       <c r="G51" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H51" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B51&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L11Y_Quote</v>
       </c>
       <c r="I51" s="130">
@@ -6687,12 +6692,12 @@
       </c>
       <c r="J51" s="62"/>
       <c r="L51" s="69" t="str">
-        <f>A55</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M51" s="143" t="str">
-        <f>IF(ISBLANK(J55),"--",J55)</f>
-        <v>obj_003ea#0019</v>
+        <f t="shared" si="11"/>
+        <v>obj_00324#0001</v>
       </c>
       <c r="N51" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M51,Trigger),"--")</f>
@@ -6700,7 +6705,7 @@
       </c>
       <c r="O51" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M51,Trigger),"--")</f>
-        <v>2.7370000000000002E-2</v>
+        <v>2.469E-2</v>
       </c>
       <c r="P51" s="143" t="b">
         <v>1</v>
@@ -6713,14 +6718,14 @@
       </c>
       <c r="S51" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M51,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T51" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M51,Trigger),"--")</f>
-        <v>47662</v>
+        <v>47736</v>
       </c>
       <c r="V51" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X51,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W51" s="3" t="e">
@@ -6770,11 +6775,11 @@
         <v>28</v>
       </c>
       <c r="G52" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H52" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B52&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L12Y_Quote</v>
       </c>
       <c r="I52" s="130">
@@ -6782,14 +6787,14 @@
       </c>
       <c r="J52" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H52,,B52,JoinCalendar,USDSTD!D52,USDSTD!E52,USDSTD!F52,USDSTD!G52,USDSTD!I52,USDSTD!C52,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00413#0019</v>
+        <v>obj_00327#0001</v>
       </c>
       <c r="L52" s="69" t="str">
-        <f>A56</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M52" s="143" t="str">
-        <f>IF(ISBLANK(J56),"--",J56)</f>
+        <f t="shared" si="11"/>
         <v>--</v>
       </c>
       <c r="N52" s="151" t="str">
@@ -6818,7 +6823,7 @@
         <v>--</v>
       </c>
       <c r="V52" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X52,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W52" s="3" t="e">
@@ -6868,11 +6873,11 @@
         <v>28</v>
       </c>
       <c r="G53" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H53" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B53&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L13Y_Quote</v>
       </c>
       <c r="I53" s="130">
@@ -6880,11 +6885,11 @@
       </c>
       <c r="J53" s="62"/>
       <c r="L53" s="69" t="str">
-        <f>A57</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M53" s="143" t="str">
-        <f>IF(ISBLANK(J57),"--",J57)</f>
+        <f t="shared" si="11"/>
         <v>--</v>
       </c>
       <c r="N53" s="151" t="str">
@@ -6913,7 +6918,7 @@
         <v>--</v>
       </c>
       <c r="V53" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X53,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W53" s="3" t="e">
@@ -6963,11 +6968,11 @@
         <v>28</v>
       </c>
       <c r="G54" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H54" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B54&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L14Y_Quote</v>
       </c>
       <c r="I54" s="130">
@@ -6975,11 +6980,11 @@
       </c>
       <c r="J54" s="62"/>
       <c r="L54" s="69" t="str">
-        <f>A58</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M54" s="143" t="str">
-        <f>IF(ISBLANK(J58),"--",J58)</f>
+        <f t="shared" si="11"/>
         <v>--</v>
       </c>
       <c r="N54" s="151" t="str">
@@ -7008,7 +7013,7 @@
         <v>--</v>
       </c>
       <c r="V54" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X54,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W54" s="3" t="e">
@@ -7058,11 +7063,11 @@
         <v>28</v>
       </c>
       <c r="G55" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H55" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B55&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L15Y_Quote</v>
       </c>
       <c r="I55" s="130">
@@ -7070,14 +7075,14 @@
       </c>
       <c r="J55" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H55,,B55,JoinCalendar,USDSTD!D55,USDSTD!E55,USDSTD!F55,USDSTD!G55,USDSTD!I55,USDSTD!C55,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ea#0019</v>
+        <v>obj_00324#0001</v>
       </c>
       <c r="L55" s="69" t="str">
-        <f>A59</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M55" s="143" t="str">
-        <f>IF(ISBLANK(J59),"--",J59)</f>
+        <f t="shared" si="11"/>
         <v>--</v>
       </c>
       <c r="N55" s="151" t="str">
@@ -7106,7 +7111,7 @@
         <v>--</v>
       </c>
       <c r="V55" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X55,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W55" s="3" t="e">
@@ -7156,11 +7161,11 @@
         <v>28</v>
       </c>
       <c r="G56" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H56" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B56&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L16Y_Quote</v>
       </c>
       <c r="I56" s="130">
@@ -7168,12 +7173,12 @@
       </c>
       <c r="J56" s="62"/>
       <c r="L56" s="69" t="str">
-        <f>A60</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M56" s="143" t="str">
-        <f>IF(ISBLANK(J60),"--",J60)</f>
-        <v>obj_0041d#0019</v>
+        <f t="shared" si="11"/>
+        <v>obj_00332#0001</v>
       </c>
       <c r="N56" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M56,Trigger),"--")</f>
@@ -7181,7 +7186,7 @@
       </c>
       <c r="O56" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M56,Trigger),"--")</f>
-        <v>2.8510000000000001E-2</v>
+        <v>2.589E-2</v>
       </c>
       <c r="P56" s="143" t="b">
         <v>1</v>
@@ -7194,14 +7199,14 @@
       </c>
       <c r="S56" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M56,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T56" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M56,Trigger),"--")</f>
-        <v>49489</v>
+        <v>49562</v>
       </c>
       <c r="V56" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X56,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W56" s="3" t="e">
@@ -7251,11 +7256,11 @@
         <v>28</v>
       </c>
       <c r="G57" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H57" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B57&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L17Y_Quote</v>
       </c>
       <c r="I57" s="130">
@@ -7263,11 +7268,11 @@
       </c>
       <c r="J57" s="62"/>
       <c r="L57" s="69" t="str">
-        <f>A61</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M57" s="143" t="str">
-        <f>IF(ISBLANK(J61),"--",J61)</f>
+        <f t="shared" si="11"/>
         <v>--</v>
       </c>
       <c r="N57" s="151" t="str">
@@ -7296,7 +7301,7 @@
         <v>--</v>
       </c>
       <c r="V57" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X57,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W57" s="3" t="e">
@@ -7346,11 +7351,11 @@
         <v>28</v>
       </c>
       <c r="G58" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H58" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B58&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L18Y_Quote</v>
       </c>
       <c r="I58" s="130">
@@ -7358,11 +7363,11 @@
       </c>
       <c r="J58" s="62"/>
       <c r="L58" s="69" t="str">
-        <f>A62</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M58" s="143" t="str">
-        <f>IF(ISBLANK(J62),"--",J62)</f>
+        <f t="shared" si="11"/>
         <v>--</v>
       </c>
       <c r="N58" s="151" t="str">
@@ -7391,7 +7396,7 @@
         <v>--</v>
       </c>
       <c r="V58" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X58,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W58" s="3" t="e">
@@ -7441,11 +7446,11 @@
         <v>28</v>
       </c>
       <c r="G59" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H59" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B59&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L19Y_Quote</v>
       </c>
       <c r="I59" s="130">
@@ -7453,11 +7458,11 @@
       </c>
       <c r="J59" s="62"/>
       <c r="L59" s="69" t="str">
-        <f>A63</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M59" s="143" t="str">
-        <f>IF(ISBLANK(J63),"--",J63)</f>
+        <f t="shared" si="11"/>
         <v>--</v>
       </c>
       <c r="N59" s="151" t="str">
@@ -7486,7 +7491,7 @@
         <v>--</v>
       </c>
       <c r="V59" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X59,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W59" s="3" t="e">
@@ -7536,11 +7541,11 @@
         <v>28</v>
       </c>
       <c r="G60" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H60" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B60&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L20Y_Quote</v>
       </c>
       <c r="I60" s="130">
@@ -7548,14 +7553,14 @@
       </c>
       <c r="J60" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H60,,B60,JoinCalendar,USDSTD!D60,USDSTD!E60,USDSTD!F60,USDSTD!G60,USDSTD!I60,USDSTD!C60,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0041d#0019</v>
+        <v>obj_00332#0001</v>
       </c>
       <c r="L60" s="69" t="str">
-        <f>A64</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M60" s="143" t="str">
-        <f>IF(ISBLANK(J64),"--",J64)</f>
+        <f t="shared" si="11"/>
         <v>--</v>
       </c>
       <c r="N60" s="151" t="str">
@@ -7584,7 +7589,7 @@
         <v>--</v>
       </c>
       <c r="V60" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X60,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W60" s="3" t="e">
@@ -7634,11 +7639,11 @@
         <v>28</v>
       </c>
       <c r="G61" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H61" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B61&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L21Y_Quote</v>
       </c>
       <c r="I61" s="130">
@@ -7646,12 +7651,12 @@
       </c>
       <c r="J61" s="62"/>
       <c r="L61" s="69" t="str">
-        <f>A65</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M61" s="143" t="str">
-        <f>IF(ISBLANK(J65),"--",J65)</f>
-        <v>obj_00418#0019</v>
+        <f t="shared" si="11"/>
+        <v>obj_0032e#0001</v>
       </c>
       <c r="N61" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M61,Trigger),"--")</f>
@@ -7659,7 +7664,7 @@
       </c>
       <c r="O61" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M61,Trigger),"--")</f>
-        <v>2.9049999999999999E-2</v>
+        <v>2.648E-2</v>
       </c>
       <c r="P61" s="143" t="b">
         <v>1</v>
@@ -7672,14 +7677,14 @@
       </c>
       <c r="S61" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M61,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T61" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M61,Trigger),"--")</f>
-        <v>51316</v>
+        <v>51389</v>
       </c>
       <c r="V61" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X61,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W61" s="3" t="e">
@@ -7729,11 +7734,11 @@
         <v>28</v>
       </c>
       <c r="G62" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H62" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B62&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L22Y_Quote</v>
       </c>
       <c r="I62" s="130">
@@ -7741,11 +7746,11 @@
       </c>
       <c r="J62" s="62"/>
       <c r="L62" s="69" t="str">
-        <f>A66</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M62" s="143" t="str">
-        <f>IF(ISBLANK(J66),"--",J66)</f>
+        <f t="shared" si="11"/>
         <v>--</v>
       </c>
       <c r="N62" s="151" t="str">
@@ -7774,7 +7779,7 @@
         <v>--</v>
       </c>
       <c r="V62" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X62,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W62" s="3" t="e">
@@ -7824,11 +7829,11 @@
         <v>28</v>
       </c>
       <c r="G63" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H63" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B63&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L23Y_Quote</v>
       </c>
       <c r="I63" s="130">
@@ -7836,11 +7841,11 @@
       </c>
       <c r="J63" s="62"/>
       <c r="L63" s="69" t="str">
-        <f>A67</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M63" s="143" t="str">
-        <f>IF(ISBLANK(J67),"--",J67)</f>
+        <f t="shared" si="11"/>
         <v>--</v>
       </c>
       <c r="N63" s="151" t="str">
@@ -7869,7 +7874,7 @@
         <v>--</v>
       </c>
       <c r="V63" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X63,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W63" s="3" t="e">
@@ -7919,11 +7924,11 @@
         <v>28</v>
       </c>
       <c r="G64" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H64" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B64&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L24Y_Quote</v>
       </c>
       <c r="I64" s="130">
@@ -7931,11 +7936,11 @@
       </c>
       <c r="J64" s="62"/>
       <c r="L64" s="69" t="str">
-        <f>A68</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M64" s="143" t="str">
-        <f>IF(ISBLANK(J68),"--",J68)</f>
+        <f t="shared" si="11"/>
         <v>--</v>
       </c>
       <c r="N64" s="151" t="str">
@@ -7964,7 +7969,7 @@
         <v>--</v>
       </c>
       <c r="V64" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X64,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W64" s="3" t="e">
@@ -8014,11 +8019,11 @@
         <v>28</v>
       </c>
       <c r="G65" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H65" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B65&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L25Y_Quote</v>
       </c>
       <c r="I65" s="130">
@@ -8026,14 +8031,14 @@
       </c>
       <c r="J65" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H65,,B65,JoinCalendar,USDSTD!D65,USDSTD!E65,USDSTD!F65,USDSTD!G65,USDSTD!I65,USDSTD!C65,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00418#0019</v>
+        <v>obj_0032e#0001</v>
       </c>
       <c r="L65" s="69" t="str">
-        <f>A69</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M65" s="143" t="str">
-        <f>IF(ISBLANK(J69),"--",J69)</f>
+        <f t="shared" si="11"/>
         <v>--</v>
       </c>
       <c r="N65" s="151" t="str">
@@ -8062,7 +8067,7 @@
         <v>--</v>
       </c>
       <c r="V65" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X65,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W65" s="3" t="e">
@@ -8112,11 +8117,11 @@
         <v>28</v>
       </c>
       <c r="G66" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H66" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B66&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L26Y_Quote</v>
       </c>
       <c r="I66" s="130">
@@ -8124,12 +8129,12 @@
       </c>
       <c r="J66" s="62"/>
       <c r="L66" s="69" t="str">
-        <f>A70</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M66" s="143" t="str">
-        <f>IF(ISBLANK(J70),"--",J70)</f>
-        <v>obj_003e6#0019</v>
+        <f t="shared" si="11"/>
+        <v>obj_0032f#0001</v>
       </c>
       <c r="N66" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M66,Trigger),"--")</f>
@@ -8137,7 +8142,7 @@
       </c>
       <c r="O66" s="144">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M66,Trigger),"--")</f>
-        <v>2.9360000000000001E-2</v>
+        <v>2.6839999999999996E-2</v>
       </c>
       <c r="P66" s="143" t="b">
         <v>1</v>
@@ -8150,14 +8155,14 @@
       </c>
       <c r="S66" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M66,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T66" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M66,Trigger),"--")</f>
-        <v>53142</v>
+        <v>53216</v>
       </c>
       <c r="V66" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X66,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W66" s="3" t="e">
@@ -8207,11 +8212,11 @@
         <v>28</v>
       </c>
       <c r="G67" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H67" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B67&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L27Y_Quote</v>
       </c>
       <c r="I67" s="130">
@@ -8219,11 +8224,11 @@
       </c>
       <c r="J67" s="62"/>
       <c r="L67" s="69" t="str">
-        <f>A71</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M67" s="143" t="str">
-        <f>IF(ISBLANK(J71),"--",J71)</f>
+        <f t="shared" si="11"/>
         <v>--</v>
       </c>
       <c r="N67" s="151" t="str">
@@ -8252,7 +8257,7 @@
         <v>--</v>
       </c>
       <c r="V67" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X67,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W67" s="3" t="e">
@@ -8302,11 +8307,11 @@
         <v>28</v>
       </c>
       <c r="G68" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H68" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B68&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L28Y_Quote</v>
       </c>
       <c r="I68" s="130">
@@ -8314,24 +8319,24 @@
       </c>
       <c r="J68" s="62"/>
       <c r="L68" s="69" t="str">
-        <f>A72</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M68" s="143" t="str">
-        <f>IF(ISBLANK(J72),"--",J72)</f>
-        <v>obj_003ff#0019</v>
+        <f t="shared" si="11"/>
+        <v>obj_00326#0001</v>
       </c>
       <c r="N68" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M68,Trigger),"--")</f>
         <v>USDAM3L40Y_Quote</v>
       </c>
-      <c r="O68" s="144">
+      <c r="O68" s="144" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M68,Trigger),"--")</f>
-        <v>2.954E-2</v>
-      </c>
-      <c r="P68" s="143" t="b">
-        <f>NOT(ISERROR(O68))</f>
-        <v>1</v>
+        <v>--</v>
+      </c>
+      <c r="P68" s="165" t="b">
+        <f>NOT(ISERROR(_xll.qlQuoteValue(N68)))</f>
+        <v>0</v>
       </c>
       <c r="Q68" s="143">
         <v>50</v>
@@ -8341,14 +8346,14 @@
       </c>
       <c r="S68" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M68,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T68" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M68,Trigger),"--")</f>
-        <v>56794</v>
+        <v>56867</v>
       </c>
       <c r="V68" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X68,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W68" s="3" t="e">
@@ -8398,11 +8403,11 @@
         <v>28</v>
       </c>
       <c r="G69" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H69" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B69&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L29Y_Quote</v>
       </c>
       <c r="I69" s="130">
@@ -8410,11 +8415,11 @@
       </c>
       <c r="J69" s="62"/>
       <c r="L69" s="69" t="str">
-        <f>A73</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M69" s="143" t="str">
-        <f>IF(ISBLANK(J73),"--",J73)</f>
+        <f t="shared" si="11"/>
         <v>--</v>
       </c>
       <c r="N69" s="151" t="str">
@@ -8443,7 +8448,7 @@
         <v>--</v>
       </c>
       <c r="V69" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X69,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W69" s="3" t="e">
@@ -8493,11 +8498,11 @@
         <v>28</v>
       </c>
       <c r="G70" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H70" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B70&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L30Y_Quote</v>
       </c>
       <c r="I70" s="130">
@@ -8505,27 +8510,27 @@
       </c>
       <c r="J70" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H70,,B70,JoinCalendar,USDSTD!D70,USDSTD!E70,USDSTD!F70,USDSTD!G70,USDSTD!I70,USDSTD!C70,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003e6#0019</v>
+        <v>obj_0032f#0001</v>
       </c>
       <c r="L70" s="69" t="str">
-        <f>A74</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M70" s="143" t="str">
-        <f>IF(ISBLANK(J74),"--",J74)</f>
-        <v>obj_003ee#0019</v>
+        <f t="shared" si="11"/>
+        <v>obj_00328#0001</v>
       </c>
       <c r="N70" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M70,Trigger),"--")</f>
         <v>USDAM3L50Y_Quote</v>
       </c>
-      <c r="O70" s="144">
+      <c r="O70" s="144" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M70,Trigger),"--")</f>
-        <v>2.9380000000000003E-2</v>
-      </c>
-      <c r="P70" s="143" t="b">
-        <f>NOT(ISERROR(O70))</f>
-        <v>1</v>
+        <v>--</v>
+      </c>
+      <c r="P70" s="165" t="b">
+        <f>NOT(ISERROR(_xll.qlQuoteValue(N70)))</f>
+        <v>0</v>
       </c>
       <c r="Q70" s="143">
         <v>50</v>
@@ -8535,14 +8540,14 @@
       </c>
       <c r="S70" s="145">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M70,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T70" s="145">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M70,Trigger),"--")</f>
-        <v>60447</v>
+        <v>60520</v>
       </c>
       <c r="V70" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X70,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W70" s="3" t="e">
@@ -8592,11 +8597,11 @@
         <v>28</v>
       </c>
       <c r="G71" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H71" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B71&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L35Y_Quote</v>
       </c>
       <c r="I71" s="130">
@@ -8604,12 +8609,12 @@
       </c>
       <c r="J71" s="62"/>
       <c r="L71" s="70" t="str">
-        <f>A75</f>
+        <f t="shared" si="10"/>
         <v>Sw</v>
       </c>
       <c r="M71" s="146" t="str">
-        <f>IF(ISBLANK(J75),"--",J75)</f>
-        <v>obj_0040a#0019</v>
+        <f t="shared" si="11"/>
+        <v>obj_00333#0001</v>
       </c>
       <c r="N71" s="156" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M71,Trigger),"--")</f>
@@ -8630,14 +8635,14 @@
       </c>
       <c r="S71" s="155">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M71,Trigger),"--")</f>
-        <v>42184</v>
+        <v>42257</v>
       </c>
       <c r="T71" s="155">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M71,Trigger),"--")</f>
-        <v>64098</v>
+        <v>64172</v>
       </c>
       <c r="V71" s="5" t="str">
-        <f>IFERROR(INDEX($L$3:$L$71,MATCH(X71,$N$3:$N$71,0),1),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W71" s="5" t="e">
@@ -8687,11 +8692,11 @@
         <v>28</v>
       </c>
       <c r="G72" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H72" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B72&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L40Y_Quote</v>
       </c>
       <c r="I72" s="128">
@@ -8699,7 +8704,7 @@
       </c>
       <c r="J72" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H72,,B72,JoinCalendar,USDSTD!D72,USDSTD!E72,USDSTD!F72,USDSTD!G72,USDSTD!I72,USDSTD!C72,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ff#0019</v>
+        <v>obj_00326#0001</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8722,11 +8727,11 @@
         <v>28</v>
       </c>
       <c r="G73" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H73" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B73&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L45Y_Quote</v>
       </c>
       <c r="I73" s="128">
@@ -8754,11 +8759,11 @@
         <v>28</v>
       </c>
       <c r="G74" s="60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H74" s="58" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B74&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L50Y_Quote</v>
       </c>
       <c r="I74" s="128">
@@ -8766,7 +8771,7 @@
       </c>
       <c r="J74" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H74,,B74,JoinCalendar,USDSTD!D74,USDSTD!E74,USDSTD!F74,USDSTD!G74,USDSTD!I74,USDSTD!C74,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_003ee#0019</v>
+        <v>obj_00328#0001</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8789,11 +8794,11 @@
         <v>28</v>
       </c>
       <c r="G75" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>UsdLibor3M</v>
       </c>
       <c r="H75" s="1" t="str">
-        <f>Currency&amp;$G$36&amp;$H$36&amp;$B75&amp;"_Quote"</f>
+        <f t="shared" si="14"/>
         <v>USDAM3L60Y_Quote</v>
       </c>
       <c r="I75" s="131">
@@ -8801,7 +8806,7 @@
       </c>
       <c r="J75" s="2" t="str">
         <f>_xll.qlSwapRateHelper2(,H75,,B75,JoinCalendar,USDSTD!D75,USDSTD!E75,USDSTD!F75,USDSTD!G75,USDSTD!I75,USDSTD!C75,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0040a#0019</v>
+        <v>obj_00333#0001</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
